--- a/Document/Testcase_Nhóm 9.xlsx
+++ b/Document/Testcase_Nhóm 9.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Dat\Desktop\SPM\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7875" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +31,12 @@
   <externalReferences>
     <externalReference r:id="rId16"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="283">
   <si>
     <t>Tên dự án</t>
   </si>
@@ -93,9 +98,6 @@
     <t>QLCHBH-GHN</t>
   </si>
   <si>
-    <t>QLCHBH-TestCase</t>
-  </si>
-  <si>
     <t>Võ Việt Hà</t>
   </si>
   <si>
@@ -121,9 +123,6 @@
   </si>
   <si>
     <t>Đăng nhập hệ thống</t>
-  </si>
-  <si>
-    <t>Đăng nhập thành công hệ thống với quyền thủ kho</t>
   </si>
   <si>
     <t>Ngày tạo</t>
@@ -513,28 +512,6 @@
     <t>Tạo Mới</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Danh mục chức năng</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE</t>
-    </r>
-  </si>
-  <si>
     <t>Thêm mới thông tin nhóm sản phẩm</t>
   </si>
   <si>
@@ -619,9 +596,6 @@
     <t xml:space="preserve">Đăng nhập </t>
   </si>
   <si>
-    <t>Đăng nhập theo phân quyền</t>
-  </si>
-  <si>
     <t>Đặt hàng</t>
   </si>
   <si>
@@ -640,9 +614,6 @@
     <t>Chức năng này cho phép nhân viên thêm mới thông tin sản phẩm</t>
   </si>
   <si>
-    <t>Chức năng này cho phép nhân viên xóa thông tin sản phẩm</t>
-  </si>
-  <si>
     <t>Chức năng này cho phép chủ cửa hàng thêm thông tin khuyến mãi</t>
   </si>
   <si>
@@ -652,30 +623,18 @@
     <t>Chức năng này cho phép chủ cửa hàng xóa thông tin khuyến mãi</t>
   </si>
   <si>
-    <t>Chức năng này cho phép chủ cửa hàng sửa thông tin đơn đặt hàng</t>
-  </si>
-  <si>
     <t>Thêm thông tin đơn đặt hàng</t>
   </si>
   <si>
     <t>Xóa thông tin đơn đặt hàng</t>
   </si>
   <si>
-    <t>Chức năng này cho phép nhân viên thêm thông tin đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>Chức năng này cho phép chủ cửa hàng xóa thông tin đơn đặt hàng</t>
-  </si>
-  <si>
     <t>Chức năng này cho phép nhân viên thêm mới thông tin website</t>
   </si>
   <si>
     <t>Chức năng này cho phép nhân viên sửa thông tin website</t>
   </si>
   <si>
-    <t>Chức năng này cho phép nhân viên xóa thông tin website</t>
-  </si>
-  <si>
     <t>Chức năng này cho phép chủ cửa hàng đóng quyền hoạt động của tài khoản người dùng</t>
   </si>
   <si>
@@ -722,9 +681,6 @@
   </si>
   <si>
     <t>Đăng nhập thành công hệ thống với quyền chủ cửa hàng và truy cập vào danh muục tồn kho</t>
-  </si>
-  <si>
-    <t>người dùng truy cập vào website của cửa hàng</t>
   </si>
   <si>
     <t>khách hàng truy cập vào website hệ thống, lựa chọn hàng hóa và chọn đặt hàng</t>
@@ -1078,6 +1034,49 @@
       </rPr>
       <t>Bảng ghi kết quả (test logs)</t>
     </r>
+  </si>
+  <si>
+    <t>DA01</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Danh mục chức năng</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE</t>
+    </r>
+  </si>
+  <si>
+    <t>Duyệt đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Chức năng này cho phép nhân viên duyệt đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Lựa chọn thông tin cần tìm kiếm</t>
+  </si>
+  <si>
+    <t>Truy cập vào website và chọn chức năng đăng nhập</t>
+  </si>
+  <si>
+    <t>Truy cập vào website và chọn chức năng đăng ký</t>
   </si>
 </sst>
 </file>
@@ -1229,12 +1228,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="3" tint="-0.249977111117893"/>
@@ -1308,6 +1301,12 @@
       <b/>
       <sz val="16"/>
       <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -2017,7 +2016,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2178,9 +2177,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="13" borderId="24" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2196,11 +2192,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2238,10 +2231,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2251,10 +2244,13 @@
     <xf numFmtId="14" fontId="4" fillId="7" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2263,45 +2259,42 @@
     <xf numFmtId="0" fontId="31" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="30" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="26" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="26" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="29" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="26" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2340,9 +2333,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2355,28 +2345,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="8" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="8" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="2" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2409,26 +2390,42 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="27" fillId="18" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="26" fillId="18" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="27" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="26" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2446,7 +2443,7 @@
     <cellStyle name="Normal_Sheet1" xfId="2"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="3"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -2643,53 +2640,14 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3969,7 +3927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4004,7 +3962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4215,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4233,15 +4191,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="56.25" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="134" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="B1" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
@@ -4260,16 +4218,16 @@
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="131" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
+      <c r="C3" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
       <c r="F3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4279,11 +4237,11 @@
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
+      <c r="C4" s="128" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
@@ -4295,14 +4253,14 @@
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
+      <c r="C5" s="130" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="33" t="s">
         <v>6</v>
       </c>
@@ -4312,10 +4270,10 @@
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="33" t="s">
         <v>7</v>
       </c>
@@ -4373,25 +4331,25 @@
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="128" t="s">
+      <c r="H11" s="126" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="14"/>
@@ -4399,19 +4357,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I12" s="15"/>
     </row>
@@ -4594,96 +4552,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="143" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" s="120" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A5" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
+      <c r="B5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" s="122" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="D5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
+      <c r="A6" s="140" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4713,96 +4671,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="143" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
+      <c r="B5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="D5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="F5" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="120" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
+      <c r="A6" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4833,168 +4791,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A5" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
+    </row>
+    <row r="7" spans="1:6" ht="76.5">
+      <c r="A7" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A5" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="120" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
+      <c r="C7" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
-    </row>
-    <row r="7" spans="1:6" ht="76.5">
-      <c r="A7" s="79" t="s">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+    </row>
+    <row r="9" spans="1:6" ht="63.75">
+      <c r="A9" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="140" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+    </row>
+    <row r="11" spans="1:6" ht="63.75">
+      <c r="A11" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="146" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-    </row>
-    <row r="9" spans="1:6" ht="63.75">
-      <c r="A9" s="79" t="s">
+      <c r="B11" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+    </row>
+    <row r="13" spans="1:6" ht="76.5">
+      <c r="A13" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="146" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-    </row>
-    <row r="11" spans="1:6" ht="63.75">
-      <c r="A11" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="69" t="s">
+      <c r="B13" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="146" t="s">
+      <c r="C13" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-    </row>
-    <row r="13" spans="1:6" ht="76.5">
-      <c r="A13" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5028,192 +4986,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.25">
+      <c r="A5" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
+    </row>
+    <row r="7" spans="1:6" ht="63.75">
+      <c r="A7" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.25">
-      <c r="A5" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
+      <c r="C7" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
-    </row>
-    <row r="7" spans="1:6" ht="63.75">
-      <c r="A7" s="79" t="s">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+    </row>
+    <row r="9" spans="1:6" ht="63.75">
+      <c r="A9" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+    </row>
+    <row r="11" spans="1:6" ht="63.75">
+      <c r="A11" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-    </row>
-    <row r="9" spans="1:6" ht="63.75">
-      <c r="A9" s="79" t="s">
+      <c r="B11" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+    </row>
+    <row r="13" spans="1:6" ht="76.5">
+      <c r="A13" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="146" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-    </row>
-    <row r="11" spans="1:6" ht="63.75">
-      <c r="A11" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="69" t="s">
+      <c r="B13" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="146" t="s">
+      <c r="C13" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-    </row>
-    <row r="13" spans="1:6" ht="76.5">
-      <c r="A13" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="68" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+    </row>
+    <row r="15" spans="1:6" ht="63.75">
+      <c r="A15" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="146" t="s">
+      <c r="B15" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-    </row>
-    <row r="15" spans="1:6" ht="63.75">
-      <c r="A15" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5249,802 +5207,802 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A1" s="80"/>
-      <c r="B1" s="151" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="153"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="145" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
     </row>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="E3" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="83" t="s">
+      <c r="F3" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="G3" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="83" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="B4" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="82" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="84" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="83"/>
+      <c r="F9" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="83"/>
+      <c r="F11" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="F12" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="83"/>
+      <c r="F14" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="83"/>
+      <c r="F15" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="83"/>
+      <c r="F18" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="83"/>
+      <c r="F19" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="F21" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="79" t="s">
+      <c r="B22" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="83"/>
+      <c r="F22" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="83"/>
+      <c r="F23" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D24" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="83"/>
+      <c r="F24" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="83"/>
+      <c r="F25" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="83"/>
+      <c r="F26" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="83"/>
+      <c r="F27" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="83"/>
+      <c r="F28" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="83"/>
+      <c r="F29" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="83"/>
+      <c r="F30" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="84" t="s">
+      <c r="D31" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="84" t="s">
+      <c r="B32" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="83"/>
+      <c r="F32" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="79" t="s">
+      <c r="B33" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="84" t="s">
+      <c r="D33" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="83"/>
+      <c r="F33" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="84" t="s">
+      <c r="B34" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="83"/>
+      <c r="F34" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="84" t="s">
+      <c r="B35" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="83"/>
+      <c r="F35" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="84" t="s">
+      <c r="B36" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="83"/>
+      <c r="F36" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="84" t="s">
+      <c r="B37" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="83"/>
+      <c r="F37" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="84" t="s">
+      <c r="B38" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="83"/>
+      <c r="F38" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G18" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" s="79" t="s">
+      <c r="B39" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G20" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G21" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G22" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G24" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G26" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G27" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G28" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G29" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G30" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G32" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="C33" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G34" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G35" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="C36" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G36" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G37" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G38" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G39" s="85" t="s">
-        <v>145</v>
+      <c r="D39" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="83"/>
+      <c r="F39" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" s="83" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6122,7 +6080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
@@ -6143,1240 +6101,1240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="152" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="86" t="s">
+      <c r="E2" s="153" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="153"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="153"/>
+      <c r="D3" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="154"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="98">
+        <v>1</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="100">
+        <v>4</v>
+      </c>
+      <c r="D6" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="84"/>
+      <c r="H6" s="102" t="e">
+        <f>D6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="101"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="98"/>
+      <c r="B7" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="159" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="159"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="159" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="159" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="160"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="159" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="98" t="s">
+      <c r="C7" s="100">
+        <v>4</v>
+      </c>
+      <c r="D7" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="84"/>
+      <c r="H7" s="102" t="e">
+        <f t="shared" ref="H7:H16" si="0">D7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" s="101"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="98"/>
+      <c r="B8" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="100">
+        <v>4</v>
+      </c>
+      <c r="D8" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="102" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" s="101"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="98"/>
+      <c r="B9" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="100">
+        <v>4</v>
+      </c>
+      <c r="D9" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="84"/>
+      <c r="H9" s="102" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="101"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="100">
+        <v>4</v>
+      </c>
+      <c r="D10" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="102" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L10" s="101"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="98"/>
+      <c r="B11" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="100">
+        <v>4</v>
+      </c>
+      <c r="D11" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="84"/>
+      <c r="H11" s="102" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="101"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="98"/>
+      <c r="B12" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="100">
+        <v>4</v>
+      </c>
+      <c r="D12" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="102" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" s="101"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="98"/>
+      <c r="B13" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="100">
+        <v>4</v>
+      </c>
+      <c r="D13" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="84"/>
+      <c r="H13" s="102" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L13" s="101"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="98"/>
+      <c r="B14" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="100">
+        <v>3</v>
+      </c>
+      <c r="D14" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="84"/>
+      <c r="H14" s="102" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J14" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" s="101"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="98"/>
+      <c r="B15" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="100">
+        <v>4</v>
+      </c>
+      <c r="D15" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" s="84"/>
+      <c r="H15" s="102" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J15" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L15" s="101"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="98"/>
+      <c r="B16" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="100">
+        <v>5</v>
+      </c>
+      <c r="D16" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="84"/>
+      <c r="H16" s="102" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" s="101"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="100">
+        <v>1</v>
+      </c>
+      <c r="D17" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="102" t="e">
+        <f>D17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="101"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="100">
-        <v>1</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="102">
-        <v>4</v>
-      </c>
-      <c r="D6" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="104" t="e">
-        <f>D6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" s="103"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="102">
-        <v>4</v>
-      </c>
-      <c r="D7" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="104" t="e">
-        <f t="shared" ref="H7:H16" si="0">D7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="103"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="102">
-        <v>4</v>
-      </c>
-      <c r="D8" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="104" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" s="103"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="102">
-        <v>4</v>
-      </c>
-      <c r="D9" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="104" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" s="103"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="102">
-        <v>4</v>
-      </c>
-      <c r="D10" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="104" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" s="103"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="102">
-        <v>4</v>
-      </c>
-      <c r="D11" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="104" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" s="103"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="102">
-        <v>4</v>
-      </c>
-      <c r="D12" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="104" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L12" s="103"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="102">
-        <v>4</v>
-      </c>
-      <c r="D13" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="104" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" s="103"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="102">
-        <v>3</v>
-      </c>
-      <c r="D14" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="104" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L14" s="103"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="100"/>
-      <c r="B15" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="102">
-        <v>4</v>
-      </c>
-      <c r="D15" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="104" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" s="103"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="100"/>
-      <c r="B16" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="102">
-        <v>5</v>
-      </c>
-      <c r="D16" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="104" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" s="103"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="100"/>
-      <c r="B17" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="102">
-        <v>1</v>
-      </c>
-      <c r="D17" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="104" t="e">
-        <f>D17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L17" s="103"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="154" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="105">
+      <c r="B18" s="149"/>
+      <c r="C18" s="103">
         <f>SUM(C6:C17)</f>
         <v>45</v>
       </c>
-      <c r="D18" s="105" t="e">
+      <c r="D18" s="103" t="e">
         <f>SUM(D6:D17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E18" s="105" t="e">
+      <c r="E18" s="103" t="e">
         <f>SUM(E6:E17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F18" s="106" t="e">
+      <c r="F18" s="104" t="e">
         <f>SUM(F6:F17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="105" t="e">
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="103" t="e">
         <f>SUM(I6:I17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J18" s="105" t="e">
+      <c r="J18" s="103" t="e">
         <f>SUM(J6:J17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K18" s="105" t="e">
+      <c r="K18" s="103" t="e">
         <f>SUM(K6:K17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L18" s="103" t="e">
+      <c r="L18" s="101" t="e">
         <f>IF(D18&gt;0,"Test lại",IF(F18&gt;0,"Test tiếp","Hoàn thành"))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="109" t="e">
+      <c r="A19" s="150" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="107" t="e">
         <f>D18/C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E19" s="109" t="e">
+      <c r="E19" s="107" t="e">
         <f>E18/C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F19" s="110" t="e">
+      <c r="F19" s="108" t="e">
         <f>F18/C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="109" t="e">
+      <c r="G19" s="109"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="107" t="e">
         <f>IF(D19=0%, D19, I18/D18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J19" s="113" t="e">
+      <c r="J19" s="111" t="e">
         <f>IF(D19=0%, D19, J18/D18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="113" t="e">
+      <c r="K19" s="111" t="e">
         <f>IF(D19=0%, D19, K18/D18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L19" s="114" t="e">
+      <c r="L19" s="112" t="e">
         <f>IF(D19&gt;20, "Cảnh báo", IF(I19&gt;15%, "Cảnh báo", ""))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="100">
+      <c r="A20" s="98">
         <v>2</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="100">
+        <v>4</v>
+      </c>
+      <c r="D20" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="102" t="e">
+        <f>D20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J20" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" s="101"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="98"/>
+      <c r="B21" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="100">
+        <v>4</v>
+      </c>
+      <c r="D21" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" s="84"/>
+      <c r="H21" s="102" t="e">
+        <f t="shared" ref="H21:H31" si="1">D21</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J21" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" s="101"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="98"/>
+      <c r="B22" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="102">
+      <c r="C22" s="100">
         <v>4</v>
       </c>
-      <c r="D20" s="102" t="e">
+      <c r="D22" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E20" s="102" t="e">
+      <c r="E22" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="103" t="e">
+      <c r="F22" s="101" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="104" t="e">
-        <f>D20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="102" t="e">
+      <c r="G22" s="84"/>
+      <c r="H22" s="102" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J20" s="102" t="e">
+      <c r="J22" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K20" s="102" t="e">
+      <c r="K22" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L20" s="103"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101" t="s">
+      <c r="L22" s="101"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="98"/>
+      <c r="B23" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="102">
+      <c r="C23" s="100">
         <v>4</v>
       </c>
-      <c r="D21" s="102" t="e">
+      <c r="D23" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E21" s="102" t="e">
+      <c r="E23" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F21" s="103" t="e">
+      <c r="F23" s="101" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="104" t="e">
-        <f t="shared" ref="H21:H31" si="1">D21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="102" t="e">
+      <c r="G23" s="84"/>
+      <c r="H23" s="102" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J21" s="102" t="e">
+      <c r="J23" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="102" t="e">
+      <c r="K23" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L21" s="103"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="100"/>
-      <c r="B22" s="101" t="s">
+      <c r="L23" s="101"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="98"/>
+      <c r="B24" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="102">
+      <c r="C24" s="100">
         <v>4</v>
       </c>
-      <c r="D22" s="102" t="e">
+      <c r="D24" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E22" s="102" t="e">
+      <c r="E24" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F22" s="103" t="e">
+      <c r="F24" s="101" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G22" s="86"/>
-      <c r="H22" s="104" t="e">
+      <c r="G24" s="84"/>
+      <c r="H24" s="102" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I22" s="102" t="e">
+      <c r="I24" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J22" s="102" t="e">
+      <c r="J24" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="102" t="e">
+      <c r="K24" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L22" s="103"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="100"/>
-      <c r="B23" s="101" t="s">
+      <c r="L24" s="101"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="98"/>
+      <c r="B25" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C25" s="100">
         <v>4</v>
       </c>
-      <c r="D23" s="102" t="e">
+      <c r="D25" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E23" s="102" t="e">
+      <c r="E25" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="103" t="e">
+      <c r="F25" s="101" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="104" t="e">
+      <c r="G25" s="84"/>
+      <c r="H25" s="102" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I23" s="102" t="e">
+      <c r="I25" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" s="102" t="e">
+      <c r="J25" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="102" t="e">
+      <c r="K25" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L23" s="103"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="100"/>
-      <c r="B24" s="101" t="s">
+      <c r="L25" s="101"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="98"/>
+      <c r="B26" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="102">
+      <c r="C26" s="100">
         <v>4</v>
       </c>
-      <c r="D24" s="102" t="e">
+      <c r="D26" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="102" t="e">
+      <c r="E26" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="103" t="e">
+      <c r="F26" s="101" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="104" t="e">
+      <c r="G26" s="84"/>
+      <c r="H26" s="102" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I24" s="102" t="e">
+      <c r="I26" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="102" t="e">
+      <c r="J26" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="102" t="e">
+      <c r="K26" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L24" s="103"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="100"/>
-      <c r="B25" s="101" t="s">
+      <c r="L26" s="101"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="98"/>
+      <c r="B27" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="102">
+      <c r="C27" s="100">
         <v>4</v>
       </c>
-      <c r="D25" s="102" t="e">
+      <c r="D27" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E25" s="102" t="e">
+      <c r="E27" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" s="103" t="e">
+      <c r="F27" s="101" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="104" t="e">
+      <c r="G27" s="84"/>
+      <c r="H27" s="102" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I25" s="102" t="e">
+      <c r="I27" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="102" t="e">
+      <c r="J27" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="102" t="e">
+      <c r="K27" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L25" s="103"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="100"/>
-      <c r="B26" s="101" t="s">
+      <c r="L27" s="101"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="98"/>
+      <c r="B28" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="102">
+      <c r="C28" s="100">
+        <v>3</v>
+      </c>
+      <c r="D28" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" s="84"/>
+      <c r="H28" s="102" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J28" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" s="101"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="98"/>
+      <c r="B29" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="100">
         <v>4</v>
       </c>
-      <c r="D26" s="102" t="e">
+      <c r="D29" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E26" s="102" t="e">
+      <c r="E29" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="103" t="e">
+      <c r="F29" s="101" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="104" t="e">
+      <c r="G29" s="84"/>
+      <c r="H29" s="102" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I26" s="102" t="e">
+      <c r="I29" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="102" t="e">
+      <c r="J29" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="102" t="e">
+      <c r="K29" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L26" s="103"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="100"/>
-      <c r="B27" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="102">
-        <v>4</v>
-      </c>
-      <c r="D27" s="102" t="e">
+      <c r="L29" s="101"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="98"/>
+      <c r="B30" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="100">
+        <v>5</v>
+      </c>
+      <c r="D30" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E27" s="102" t="e">
+      <c r="E30" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F27" s="103" t="e">
+      <c r="F30" s="101" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G27" s="86"/>
-      <c r="H27" s="104" t="e">
+      <c r="G30" s="84"/>
+      <c r="H30" s="102" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I27" s="102" t="e">
+      <c r="I30" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" s="102" t="e">
+      <c r="J30" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="102" t="e">
+      <c r="K30" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L27" s="103"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="100"/>
-      <c r="B28" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="102">
-        <v>3</v>
-      </c>
-      <c r="D28" s="102" t="e">
+      <c r="L30" s="101"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="98"/>
+      <c r="B31" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="100">
+        <v>1</v>
+      </c>
+      <c r="D31" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="102" t="e">
+      <c r="E31" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F28" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="86"/>
-      <c r="H28" s="104" t="e">
+      <c r="F31" s="101" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G31" s="84"/>
+      <c r="H31" s="102" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I28" s="102" t="e">
+      <c r="I31" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="102" t="e">
+      <c r="J31" s="100" t="e">
+        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="100" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L28" s="103"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="100"/>
-      <c r="B29" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="102">
-        <v>4</v>
-      </c>
-      <c r="D29" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="104" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L29" s="103"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="102">
-        <v>5</v>
-      </c>
-      <c r="D30" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E30" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" s="86"/>
-      <c r="H30" s="104" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" s="103"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="102">
-        <v>1</v>
-      </c>
-      <c r="D31" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="103" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="104" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="102" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" s="103"/>
+      <c r="L31" s="101"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="154" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="155"/>
-      <c r="C32" s="105">
+      <c r="A32" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="149"/>
+      <c r="C32" s="103">
         <f>SUM(C20:C31)</f>
         <v>45</v>
       </c>
-      <c r="D32" s="105" t="e">
+      <c r="D32" s="103" t="e">
         <f>SUM(D20:D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E32" s="105" t="e">
+      <c r="E32" s="103" t="e">
         <f>SUM(E20:E31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" s="106" t="e">
+      <c r="F32" s="104" t="e">
         <f>SUM(F20:F31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G32" s="107"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="105" t="e">
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="103" t="e">
         <f>SUM(I20:I31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="105" t="e">
+      <c r="J32" s="103" t="e">
         <f>SUM(J20:J31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="105" t="e">
+      <c r="K32" s="103" t="e">
         <f>SUM(K20:K31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="103" t="e">
+      <c r="L32" s="101" t="e">
         <f>IF(D32&gt;0,"Test lại",IF(F32&gt;0,"Test tiếp","Hoàn thành"))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="109" t="e">
+      <c r="A33" s="150" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="107" t="e">
         <f>D32/C32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E33" s="109" t="e">
+      <c r="E33" s="107" t="e">
         <f>E32/C32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="110" t="e">
+      <c r="F33" s="108" t="e">
         <f>F32/C32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="109" t="e">
+      <c r="G33" s="109"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="107" t="e">
         <f>IF(D32=0%, D32, I32/D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="113" t="e">
+      <c r="J33" s="111" t="e">
         <f>IF(D33=0%, D33, J32/D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="113" t="e">
+      <c r="K33" s="111" t="e">
         <f>IF(D33=0%, D33, K32/D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="114" t="e">
+      <c r="L33" s="112" t="e">
         <f>IF(D33&gt;20, "Cảnh báo", IF(I33&gt;15%, "Cảnh báo", ""))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="107" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
+      <c r="A35" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7473,10 +7431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7490,13 +7448,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="51" customHeight="1">
       <c r="A1" s="52"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="135" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="42"/>
@@ -7507,52 +7465,52 @@
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="123"/>
-      <c r="B3" s="142" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="42"/>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="128" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="45"/>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="131"/>
+      <c r="D5" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="141" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="139"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="42"/>
-      <c r="B6" s="137" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="140"/>
+      <c r="B6" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="133"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="46"/>
@@ -7565,19 +7523,19 @@
     <row r="8" spans="1:6">
       <c r="A8" s="49"/>
       <c r="B8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="E8" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="51" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51">
@@ -7586,16 +7544,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>205</v>
+        <v>146</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="158" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51">
@@ -7604,369 +7562,303 @@
         <v>2</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>205</v>
+        <v>147</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="158" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51">
       <c r="A11" s="59"/>
       <c r="B11" s="56">
-        <v>4</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>204</v>
+        <v>3</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="158" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51">
       <c r="A12" s="59"/>
-      <c r="B12" s="60">
-        <v>5</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>204</v>
+      <c r="B12" s="56">
+        <v>4</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="158" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51">
       <c r="A13" s="59"/>
       <c r="B13" s="56">
-        <v>6</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="129" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>204</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="158" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51">
       <c r="A14" s="59"/>
-      <c r="B14" s="60">
-        <v>7</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>206</v>
+      <c r="B14" s="56">
+        <v>6</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="158" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51">
       <c r="A15" s="59"/>
       <c r="B15" s="56">
-        <v>8</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>206</v>
+      <c r="D15" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="158" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="51">
       <c r="A16" s="59"/>
-      <c r="B16" s="60">
-        <v>9</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>206</v>
+      <c r="B16" s="56">
+        <v>8</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="158" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51">
       <c r="A17" s="59"/>
-      <c r="B17" s="60">
-        <v>10</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="63" t="s">
+      <c r="B17" s="56">
+        <v>9</v>
+      </c>
+      <c r="C17" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>207</v>
+      <c r="D17" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="158" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="51">
       <c r="A18" s="59"/>
       <c r="B18" s="56">
-        <v>11</v>
-      </c>
-      <c r="C18" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>207</v>
+      <c r="D18" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="51">
       <c r="A19" s="59"/>
-      <c r="B19" s="60">
-        <v>12</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>207</v>
+      <c r="B19" s="56">
+        <v>11</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="159" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="51">
       <c r="A20" s="59"/>
-      <c r="B20" s="60">
-        <v>13</v>
-      </c>
-      <c r="C20" s="61" t="s">
+      <c r="B20" s="56">
+        <v>12</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>208</v>
+      <c r="E20" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="51">
       <c r="A21" s="59"/>
-      <c r="B21" s="60">
-        <v>14</v>
-      </c>
-      <c r="C21" s="61" t="s">
+      <c r="B21" s="56">
+        <v>13</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="67" t="s">
-        <v>208</v>
+      <c r="E21" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="51">
       <c r="A22" s="59"/>
-      <c r="B22" s="60">
+      <c r="B22" s="56">
+        <v>14</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="158" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="39">
+      <c r="A23" s="59"/>
+      <c r="B23" s="56">
         <v>15</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="51">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60">
+      <c r="C23" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="38.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="56">
         <v>16</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C24" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="51">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60">
+      <c r="D24" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="38.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="56">
         <v>17</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C25" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="67" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="51">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60">
-        <v>19</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="F25" s="67" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="51">
-      <c r="B26" s="60">
-        <v>21</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="67" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="39">
-      <c r="B27" s="60">
-        <v>23</v>
-      </c>
-      <c r="C27" s="61" t="s">
+      <c r="D25" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="158" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="38.25">
+      <c r="B26" s="56">
+        <v>18</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="67"/>
-    </row>
-    <row r="28" spans="1:6" ht="38.25">
-      <c r="B28" s="60">
-        <v>24</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="67" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="39">
-      <c r="B29" s="60">
-        <v>25</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="39">
-      <c r="B30" s="60">
-        <v>26</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="67" t="s">
-        <v>30</v>
+      <c r="E26" s="158" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -8005,120 +7897,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
+      <c r="B5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="D5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
+      <c r="A6" s="140" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
+      <c r="A8" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="76.5">
-      <c r="A9" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="130" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="A9" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8150,144 +8042,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="143" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="48" customHeight="1">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
+      <c r="B5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" ht="48" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="D5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="120" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
+    </row>
+    <row r="7" spans="1:6" ht="102">
+      <c r="A7" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="B7" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="140" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+    </row>
+    <row r="9" spans="1:6" ht="89.25">
+      <c r="A9" s="77" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
-    </row>
-    <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="79" t="s">
+      <c r="B9" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="140" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+    </row>
+    <row r="11" spans="1:6" ht="76.5">
+      <c r="A11" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-    </row>
-    <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="146" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-    </row>
-    <row r="11" spans="1:6" ht="76.5">
-      <c r="A11" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="B11" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8320,144 +8212,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="53.25" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="143" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
+      <c r="B5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="D5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
+      <c r="A6" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="146" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
+      <c r="A8" s="140" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="102">
-      <c r="A9" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="A9" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
+      <c r="A10" s="140" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="76.5">
-      <c r="A11" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="A11" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8490,144 +8382,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="143" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
+      <c r="B5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="D5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
+      <c r="A6" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="89.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="140" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+    </row>
+    <row r="9" spans="1:6" ht="89.25">
+      <c r="A9" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="140" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+    </row>
+    <row r="11" spans="1:6" ht="76.5">
+      <c r="A11" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B11" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-    </row>
-    <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="146" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-    </row>
-    <row r="11" spans="1:6" ht="76.5">
-      <c r="A11" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="C11" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8660,144 +8552,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="143" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.25">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
+      <c r="B5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.25">
-      <c r="A5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="D5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
+      <c r="A6" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="89.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+    </row>
+    <row r="9" spans="1:6" ht="89.25">
+      <c r="A9" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+    </row>
+    <row r="11" spans="1:6" ht="76.5">
+      <c r="A11" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="146" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-    </row>
-    <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-    </row>
-    <row r="11" spans="1:6" ht="76.5">
-      <c r="A11" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="B11" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8829,96 +8721,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
+      <c r="B5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="D5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
+      <c r="A6" s="140" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="63.75">
-      <c r="A7" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8947,96 +8839,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1">
-      <c r="A1" s="76"/>
-      <c r="B1" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="143" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="118" t="s">
+      <c r="B5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="D5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="146" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
+      <c r="A6" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="51">
-      <c r="A7" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/Testcase_Nhóm 9.xlsx
+++ b/Document/Testcase_Nhóm 9.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Dat\Desktop\SPM\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7440" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TÀI LIỆU TEST CASE" sheetId="1" r:id="rId1"/>
     <sheet name="Test case list" sheetId="2" r:id="rId2"/>
     <sheet name="Phân hệ Quản lý nhóm sản phẩm" sheetId="3" r:id="rId3"/>
     <sheet name="Phân hệ quản lý sản phẩm" sheetId="4" r:id="rId4"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="263">
   <si>
     <t>Tên dự án</t>
   </si>
@@ -224,144 +224,7 @@
     <t>FU_0010.03</t>
   </si>
   <si>
-    <t>FU_0010.04</t>
-  </si>
-  <si>
-    <t>Quản lý cửa hàng bách hóa
-Phân hệ Quản lý lương</t>
-  </si>
-  <si>
-    <t>1. Thêm mới thông tin lương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Chọn chức năng thêm mới thông tin lương
-- Nhập thông tin lương    - Chọn Lưu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thêm thành công
-- Trở về giao diện Quản lý lương
-</t>
-  </si>
-  <si>
-    <t>2. Sửa thông tin lương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Chọn chức năng sửa thông tin lương
-- Nhập thông tin lương      - Chọn Lưu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Sửa thành công
-- Trở về giao diện Quản lý lương
-</t>
-  </si>
-  <si>
-    <t>3. Xóa thông tin lương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Chọn chức năng xóa thông tin lương
-- Xác nhận xóa                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Xóa thành công
-- Trở về giao diện Quản lý lương
-</t>
-  </si>
-  <si>
-    <t>4. Tìm kiếm thông tin lương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Nhập thông tin lương cần tìm kiếm
-- Chọn chức năng tìm kiếm     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Hiển thị các lương phù hợp với thông tin tìm kiếm
-</t>
-  </si>
-  <si>
     <t>FA_001.01</t>
-  </si>
-  <si>
-    <t>FA_001.02</t>
-  </si>
-  <si>
-    <t>FA_001.03</t>
-  </si>
-  <si>
-    <t>FA_001.04</t>
-  </si>
-  <si>
-    <t>Quản lý cửa hàng bách hóa
-Phân hệ Quản lý tài khoản</t>
-  </si>
-  <si>
-    <t>1. Thêm mới thông tin tài khoản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Chọn chức năng thêm mới thông tin tài khoản
-- Nhập thông tin tài khoản    - Chọn Lưu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thêm thành công
-- Trở về giao diện Quản lý tài khoản
-</t>
-  </si>
-  <si>
-    <t>2. Sửa thông tin tài khoản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Chọn chức năng sửa thông tin tài khoản
-- Nhập thông tin tài khoản      - Chọn Lưu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Sửa thành công
-- Trở về giao diện Quản lý tài khoản
-</t>
-  </si>
-  <si>
-    <t>3. Xóa thông tin tài khoản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Chọn chức năng xóa thông tin tài khoản
-- Xác nhận xóa                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Xóa thành công
-- Trở về giao diện Quản lý tài khoản
-</t>
-  </si>
-  <si>
-    <t>4. Tìm kiếm thông tin tài khoản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Nhập thông tin tài khoản cần tìm kiếm
-- Chọn chức năng tìm kiếm     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Hiển thị các tài khoản phù hợp với thông tin tìm kiếm
-</t>
-  </si>
-  <si>
-    <t>FA_001.05</t>
-  </si>
-  <si>
-    <t>5. Phân quyền tài khoản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Chọn nhân viên
-- Chọn quyền                          - Chọn Lưu                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thông báo thành công
-</t>
   </si>
   <si>
     <t>FA_002</t>
@@ -572,24 +435,12 @@
     <t>Thống kê doanh thu</t>
   </si>
   <si>
-    <t>Xem thông tin doanh thu</t>
-  </si>
-  <si>
     <t>Thống kê tồn kho</t>
   </si>
   <si>
-    <t>Xem thông tin tồn kho</t>
-  </si>
-  <si>
     <t>Đăng ký tài khoản</t>
   </si>
   <si>
-    <t>Cho phép hoạt động</t>
-  </si>
-  <si>
-    <t>Block tài khoản</t>
-  </si>
-  <si>
     <t>Đăng ký tài khoản người dùng</t>
   </si>
   <si>
@@ -602,9 +453,6 @@
     <t>Tìm kiếm</t>
   </si>
   <si>
-    <t>Tìm kiếm hàng hóa</t>
-  </si>
-  <si>
     <t>Chức năng này cho phép nhân viên thêm mới thống tin nhóm sản phẩm</t>
   </si>
   <si>
@@ -614,9 +462,6 @@
     <t>Chức năng này cho phép nhân viên thêm mới thông tin sản phẩm</t>
   </si>
   <si>
-    <t>Chức năng này cho phép chủ cửa hàng thêm thông tin khuyến mãi</t>
-  </si>
-  <si>
     <t>Chức năng này cho phép chủ cửa hàng sửa thông tin khuyến mãi</t>
   </si>
   <si>
@@ -635,12 +480,6 @@
     <t>Chức năng này cho phép nhân viên sửa thông tin website</t>
   </si>
   <si>
-    <t>Chức năng này cho phép chủ cửa hàng đóng quyền hoạt động của tài khoản người dùng</t>
-  </si>
-  <si>
-    <t>Chức năng này cho phép chủ cửa hàng mở quyền hoạt động cho tài khoản người dùng</t>
-  </si>
-  <si>
     <t>Chức năng này cho phép chủ cửa hàng xem thông tin doanh thu của shop.</t>
   </si>
   <si>
@@ -650,15 +489,9 @@
     <t>Chức năng này cho phép khách hàng, nhân viên đăng ký tài khoản người dùng</t>
   </si>
   <si>
-    <t>Chức năng này cho phép nhân viên, khách hàng, chủ cửa hàng đăng nhập vào hệ thống theo phân quyền</t>
-  </si>
-  <si>
     <t>Chức năng này cho phép khách hàng đặt hàng online thay vì đến trực tiếp cửa hàng</t>
   </si>
   <si>
-    <t>Chức năng này cho phép nhân viên, khách hàng, chủ cửa hàng tìm kiếm hàng hóa có trong shop.</t>
-  </si>
-  <si>
     <t>Đăng nhập thành công hệ thống với quyền nhân viên và truy cập vào danh mục quản trị sản phẩm</t>
   </si>
   <si>
@@ -677,35 +510,10 @@
     <t>Đăng nhập thành công hệ thống với quyền chủ cửa hàng và truy cập vào danh mục quản trị tài khoản người dùng</t>
   </si>
   <si>
-    <t>Đăng nhập thành công hệ thống với quyền chủ cửa hàng và truy cập vào danh muc doanh thu</t>
-  </si>
-  <si>
-    <t>Đăng nhập thành công hệ thống với quyền chủ cửa hàng và truy cập vào danh muục tồn kho</t>
-  </si>
-  <si>
     <t>khách hàng truy cập vào website hệ thống, lựa chọn hàng hóa và chọn đặt hàng</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Quản lý cửa hàng bách hóa
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color indexed="62"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Phân hệ Quản lý nhóm sản phẩm</t>
-    </r>
-  </si>
-  <si>
     <t>23/2/2016</t>
-  </si>
-  <si>
-    <t>1. Thêm mới thông tin nhóm sản phẩm</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -729,22 +537,6 @@
 - Chọn sửa nhóm sản phẩm - Nhập thông tin nhóm sản phẩm                                -Chọn lưu thông tin</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Quản lý cửa hàng bách hóa
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color indexed="62"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Phân hệ Quản lý sản phẩm</t>
-    </r>
-  </si>
-  <si>
     <t>1. Thêm mới thông tin sản phẩm</t>
   </si>
   <si>
@@ -756,33 +548,11 @@
     <t>2. Sửa thông tin sản phẩm</t>
   </si>
   <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị nhóm sản phẩm
-- Chọn sửa thông tin sản phẩm                                - Nhập thông tin sản phẩm                                -Chọn lưu thông tin</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Sửa thành công
 - Trở về giao diện Quản lý sản phẩm
 </t>
   </si>
   <si>
-    <t>3. Xóa thông tin sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị nhóm sản phẩm
-- Chọn xóa thông tin sản phẩm                                   -Xác nhận muốn xóa        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Xóa thành công
-- Trở về giao diện Quản lý sản phẩm
-</t>
-  </si>
-  <si>
-    <t>Quản lý cửa hàng bách hóa
-Phân hệ Quản lý khuyến mãi</t>
-  </si>
-  <si>
     <t>1. Thêm mới thông tin khuyến mãi</t>
   </si>
   <si>
@@ -790,11 +560,6 @@
   </si>
   <si>
     <t>3. Xóa thông tin khuyến mãi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị  sản phẩm
-- Chọn thêm mới nhóm sản phẩm                                - Nhập thông tin  sản phẩm                                -Chọn lưu thông tin</t>
   </si>
   <si>
     <t xml:space="preserve">- Thêm thành công
@@ -802,11 +567,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị  khuyến mãi
-- Chọn thêm mới thông tin khuyến mãi                                - Nhập thông tin khuyến mãi                                -Chọn lưu thông tin</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Sửa thành công
 - Trở về giao diện Quản lý khuyến mãi
 </t>
@@ -817,49 +577,6 @@
 </t>
   </si>
   <si>
-    <t>Quản lý cửa hàng bách hóa
-Phân hệ Quản lý đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>2. Sửa thông tin đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>1. Thêm mới đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>3. Xóa thông tin đơn đặt hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thêm thành công
-- Trở về giao diện Quản lý đơn đặt hàng
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị khuyến mãi
-- Chọn sửa thông tin khuyến mãi                                    - Nhập thông tin khuyến mãi                               -Chọn lưu thông tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Sửa thành công
-- Trở về giao diện Quản lý đơn đặt hàng
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Xóa thành công
-- Trở về giao diện Quản lý đơn đặt hàng
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị  đơn đặt hàng
-- Chọn thêm mới thông tin đơn đặt hàng                               - Nhập thông tin mới                                -Chọn lưu thông tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị đơn đặt hàng
-- Chọn sửa thông tin đơn đặt hàng                                    - Nhập thông tin                                -Chọn lưu thông tin</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Xóa thành công
 - Trở về giao diện Quản lý thông tin website
 </t>
@@ -875,114 +592,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị khuyến mãi
-- Chọn xóa thông tin khuyến mãi                                  -Xác nhận muốn xóa        </t>
-  </si>
-  <si>
-    <t>Quản lý cửa hàng bách hóa
-Phân hệ Quản lý thông tin website</t>
-  </si>
-  <si>
-    <t>1. Thêm mới thông tin website</t>
-  </si>
-  <si>
     <t>2. Sửa thông tin website</t>
   </si>
   <si>
     <t>3. Xóa thông tin website</t>
   </si>
   <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị đơn đặt hàng
-- Chọn xóa thông tin đơn đặt hàng                                    -Xác nhận muốn xóa               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị thông tin website
-- Chọn xóa thông tin website                                  -Xác nhận muốn xóa    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị thông tin website
-- Chọn sửa thông tin website                                    - Nhập thông tin                                -Chọn lưu thông tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục quản trị thông tin website
-- Chọn thêm mới thông tin website                               - Nhập thông tin mới                                -Chọn lưu thông tin</t>
-  </si>
-  <si>
-    <t>Quản lý cửa hàng bách hóa
-Phân hệ Thống kê doanh thu</t>
-  </si>
-  <si>
     <t>1. Xem thông tin doanh thu</t>
   </si>
   <si>
-    <t xml:space="preserve">
--Truy cập vào danh mục thống kê doanh thu                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Hệ thống hiển thị giao diện thống kê
-</t>
-  </si>
-  <si>
     <t>1.Xem thông tin tồn kho</t>
   </si>
   <si>
-    <t>Quản lý cửa hàng bách hóa
-Phân hệ Thống kê tồn kho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào danh mục thống kê tồn kho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-hệ thống hiển thị giao diện thống kê
-</t>
-  </si>
-  <si>
-    <t>Quản lý cửa hàng bách hóa
-Phân hệ Đăng ký tài khoản</t>
-  </si>
-  <si>
     <t>1. Đăng ký tài khoản người dùng</t>
   </si>
   <si>
-    <t xml:space="preserve">
--Truy cập vào website cửa hàng                        - Truy cập vào danh mục đăng ký tài khoản            - Điền thông tin theo biểu mẫu                              - xác nhận đăng ký</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Đăng ký tài khoản thành công                     - Hệ thống hiển thị thông báo success
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Quản lý cửa hàng bách hóa
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color indexed="62"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Phân hệ Đăng nhập</t>
-    </r>
-  </si>
-  <si>
     <t>1. Đăng nhập theo phân quyền</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Truy cập vào website cửa hàng                                     - Truy cập vào danh mục đăng nhập                             - Điền username và password - xác nhận đăng nhập</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Hệ thống hiển thị đăng nhập thành công và chuyển trang theo phân quyền.
-</t>
   </si>
   <si>
     <t>Thêm  thông tin nhóm sản phẩm</t>
@@ -1070,13 +695,474 @@
     <t>Chức năng này cho phép nhân viên duyệt đơn đặt hàng</t>
   </si>
   <si>
-    <t>Lựa chọn thông tin cần tìm kiếm</t>
-  </si>
-  <si>
     <t>Truy cập vào website và chọn chức năng đăng nhập</t>
   </si>
   <si>
     <t>Truy cập vào website và chọn chức năng đăng ký</t>
+  </si>
+  <si>
+    <t>Chức năng này cho phép chủ cửa hàng thêm thông tin chương trình khuyến mãi</t>
+  </si>
+  <si>
+    <t>Thêm tài khoản nhân viên</t>
+  </si>
+  <si>
+    <t>Cho phép chủ cửa hàng thêm tài khoản cho một nhân viên mới</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công vào hệ thống với quyền chủ cửa hàng và truy cập vào chức năng quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>Thay đổi trạng thái tài khoản</t>
+  </si>
+  <si>
+    <t>Chức năng này cho phép chủ cửa thay đổi trạng thái của một tài khoản người dùng: hoạt động hoặc không hoạt động</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công hệ thống với quyền chủ cửa hàng và truy cập vào chức năng thống kê doanh thu</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công hệ thống với quyền chủ cửa hàng và truy cập vào chức năng thống kê tồn kho</t>
+  </si>
+  <si>
+    <t>Chức năng này cho phép nhân viên, khách hàng, chủ cửa hàng đăng nhập vào hệ thống</t>
+  </si>
+  <si>
+    <t>Truy cập vào website và thực hiện tìm kiếm</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hàng hóa theo tên</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hàng hóa theo khoảng giá</t>
+  </si>
+  <si>
+    <t>Chức năng này cho phép khách hàng tìm kiếm hàng hóa theo tên</t>
+  </si>
+  <si>
+    <t>Chức năng này cho phép khách hàng tìm kiếm hàng hóa theo khoảng giá</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hàng hóa theo nhóm hàng hóa</t>
+  </si>
+  <si>
+    <t>Chức năng cho phép khách hàng tìm kiếm hàng hóa theo nhóm hàng hóa</t>
+  </si>
+  <si>
+    <t>Tách chức năng tìm kiếm thành 3 tiêu chí khác nhau</t>
+  </si>
+  <si>
+    <t>ThuanPH</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="62"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Phân hệ Quản lý nhóm sản phẩm</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Thêm mới nhóm sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="62"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Phân hệ Quản lý sản phẩm</t>
+    </r>
+  </si>
+  <si>
+    <t>- Truy cập vào danh mục quản trị  sản phẩm
+- Chọn thêm mới sản phẩm                                - Nhập thông tin  sản phẩm                                - Chọn lưu thông tin</t>
+  </si>
+  <si>
+    <t>- Truy cập vào danh mục quản trị sản phẩm
+- Chọn sửa thông tin sản phẩm                                - Nhập thông tin sản phẩm                                - Chọn lưu thông tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bổ sung chức năng 18,19,20 trong test case list </t>
+  </si>
+  <si>
+    <t>Xóa chức năng "xóa sản phẩm" trong phân hệ quản lý sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>WEBSITE QUẢN LÝ CỬA HÀNG QUẦN ÁO ONLINE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF162BF6"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Phân hệ Quản lý khuyến mãi</t>
+    </r>
+  </si>
+  <si>
+    <t>- Truy cập vào danh mục quản trị  khuyến mãi
+- Chọn thêm mới thông tin khuyến mãi                                - Nhập thông tin khuyến mãi                                - Chọn lưu thông tin</t>
+  </si>
+  <si>
+    <t>- Truy cập vào danh mục quản trị khuyến mãi
+- Chọn sửa thông tin khuyến mãi                                    - Nhập thông tin khuyến mãi                               - Chọn lưu thông tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Truy cập vào danh mục quản trị khuyến mãi
+- Chọn xóa thông tin khuyến mãi                                  -Xác nhận muốn xóa        </t>
+  </si>
+  <si>
+    <t>- Truy cập vào danh mục quản trị thông tin website
+- Chọn thêm mới thông tin website                               - Nhập thông tin mới                                - Chọn lưu thông tin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF162BF6"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Phân hệ Quản lý đơn đặt hàng</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Duyệt đơn đặt hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thay đổi trạng thái đơn đặt hàng thành công
+- Trở về giao diện Quản lý đơn đặt hàng
+</t>
+  </si>
+  <si>
+    <t>Thay đổi nội dung Phân hệ quản lý đơn đặt hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Truy cập vào danh mục quản trị  đơn đặt hàng
+- Chọn xem chi tiết đơn đặt hàng                           - Thay đổi trạng thái đơn đặt hàng thành bằng cách nhấn vào "đã duyệt".                          </t>
+  </si>
+  <si>
+    <t>1. Quản lý thông tin website</t>
+  </si>
+  <si>
+    <t>- Truy cập vào danh mục quản trị thông tin website
+- Chọn sửa thông tin website                                    - Nhập thông tin                                - Chọn lưu thông tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Truy cập vào danh mục quản trị thông tin website
+- Chọn xóa thông tin website                                  - Xác nhận muốn xóa    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF162BF6"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Phân hệ Quản lý thông tin website</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF162BF6"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Phân hệ Thống kê doanh thu</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- Truy cập vào danh mục thống kê doanh thu bán hàng
+- Chọn lựa mức thống kê: theo tháng hoặc theo quý                                     - Xem bảng báo cáo thống kê                                - Nhấn in báo cáo thống kế nếu muốn                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hệ thống hiển báo cáo thống kê thành công, in thành công báo cáo cho người dùng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Truy cập vào danh mục thống kê tồn kho
+- Chọn lựa mức thống kê: theo tháng hoặc theo quý                                     - Xem bảng báo cáo thống kê tồn kho của từng mặt hàng                                 - Nhấn in báo cáo thống kế nếu muốn        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hệ thống hiển thị báo cáo thống kê tồn kho của từng mặt hàng và in thành công báo cáo cho người dùng
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF162BF6"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Phân hệ Thống kê tồn kho</t>
+    </r>
+  </si>
+  <si>
+    <t>- Truy cập vào website cửa hàng                                 - Truy cập vào danh mục đăng ký tài khoản               - Điền thông tin theo biểu mẫu                                 - Xác nhận đăng ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Đăng ký tài khoản thành công                                - Hệ thống thêm mới tài khoản vào CSDL                     - Hệ thống hiển thị thông báo thành công
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF162BF6"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Phân hệ Đăng ký tài khoản</t>
+    </r>
+  </si>
+  <si>
+    <t>- Truy cập vào website cửa hàng                                       - Truy cập vào danh mục đăng nhập                                       - Điền username và password   - Xác nhận đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hệ thống hiển thị đăng nhập thành công và chuyển trang theo phân quyền trong trường hợp usename và password đúng và hiển thị lỗi khi ngược lại
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF162BF6"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Phân hệ Đăng nhập</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Tìm kiếm theo tên sản phẩm</t>
+  </si>
+  <si>
+    <t>2. Tìm kiếm theo khoảng giá</t>
+  </si>
+  <si>
+    <t>3. Tìm kiếm theo nhóm sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF162BF6"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Phân hệ Tìm kiếm</t>
+    </r>
+  </si>
+  <si>
+    <t>- Truy cập vào website
+- Nhập tên sản phẩm muốn tìm kiếm               - Bấm vào nút tìm kiếm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hiển thị kết quả nếu có sản phẩm phù hợp và ngược lại
+</t>
+  </si>
+  <si>
+    <t>- Truy cập vào website
+- Chọn khoảng giá cần tìm kiếm bằng cách nhấn vào radio button             - Bấm vào nút tìm kiếm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Truy cập vào website
+- Chọn nhóm sản phẩm trên main-menu                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hiển thị danh sách sản phẩm theo nhóm người dùng đã chọn
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">WEBSITE QUẢN LÝ CỬA HÀNG BÁN QUẦN ÁO ONLINE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF162BF6"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Phân hệ Đặt hàng</t>
+    </r>
+  </si>
+  <si>
+    <t>Phạm Hồng Thuận</t>
+  </si>
+  <si>
+    <t>08/03/1206</t>
+  </si>
+  <si>
+    <t>1. Đặt hàng</t>
+  </si>
+  <si>
+    <t>- Khách hàng Truy cập website
+- Lựa chọn sản phẩm từ trang danh sách sản phẩm hoặc trang chi tiết sản phẩm   - Lựa chọn thêm sản phẩm khác                                  - Cập nhật số lượng hàng trong giỏ hàng (có thể có hoặc không)
+- Nhấn đặt nút đặt hàng       - Đăng nhập nếu có tài khoản hoặc nhập thông tin khách hàng nếu không có tài khoản                                 - Xác nhận đặt hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thêm thành công đơn hàng vào CSDL
+- Thông báo đặt hàng thành công tới người dùng
+</t>
   </si>
 </sst>
 </file>
@@ -1086,11 +1172,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1103,7 +1189,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1310,6 +1396,38 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF162BF6"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF162BF6"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -1421,7 +1539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2000,6 +2118,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2016,7 +2178,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2198,9 +2360,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="11" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2247,9 +2406,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2336,6 +2492,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2344,6 +2530,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2375,9 +2570,24 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="21" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="44" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="45" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2410,22 +2620,6 @@
     </xf>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2642,6 +2836,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF162BF6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4173,33 +4372,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="56.25" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
@@ -4218,16 +4417,16 @@
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="128" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
+      <c r="C3" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
       <c r="F3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4237,11 +4436,11 @@
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="128" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="C4" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
       <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
@@ -4253,14 +4452,14 @@
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="130" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
+      <c r="C5" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="33" t="s">
         <v>6</v>
       </c>
@@ -4270,10 +4469,10 @@
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
       <c r="F6" s="33" t="s">
         <v>7</v>
       </c>
@@ -4331,25 +4530,25 @@
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="126" t="s">
+      <c r="H11" s="124" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="14"/>
@@ -4357,53 +4556,71 @@
     <row r="12" spans="1:9">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="41" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="15"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="21">
+        <v>42437</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>220</v>
+      </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="132" t="s">
+        <v>213</v>
+      </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="39" t="s">
+        <v>214</v>
+      </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="63.75">
       <c r="A14" s="15"/>
       <c r="B14" s="21"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="132" t="s">
+        <v>221</v>
+      </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="39" t="s">
+        <v>214</v>
+      </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="51">
       <c r="A15" s="15"/>
       <c r="B15" s="21"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="132" t="s">
+        <v>230</v>
+      </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="39" t="s">
+        <v>214</v>
+      </c>
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9">
@@ -4541,107 +4758,107 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="A1" s="155" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-    </row>
-    <row r="5" spans="1:6" s="120" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+    </row>
+    <row r="5" spans="1:6" s="118" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A5" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="77" t="s">
+      <c r="A6" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="89.25">
+      <c r="A7" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4657,110 +4874,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+    <row r="1" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A1" s="155" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="116" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="77" t="s">
+      <c r="A6" s="150" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="127.5">
+      <c r="A7" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4774,192 +4991,167 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="A1" s="155" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="116" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="76.5">
-      <c r="A7" s="77" t="s">
+      <c r="A6" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="63.75">
+      <c r="A7" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
+      <c r="A8" s="150" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
     </row>
     <row r="9" spans="1:6" ht="63.75">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="125" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
+      <c r="A10" s="150" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="152"/>
     </row>
     <row r="11" spans="1:6" ht="63.75">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="140" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-    </row>
-    <row r="13" spans="1:6" ht="76.5">
-      <c r="A13" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="B11" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4969,218 +5161,118 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="A1" s="155" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113">
+        <v>42437</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.25">
-      <c r="A5" s="76" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="63.75">
-      <c r="A7" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="140" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-    </row>
-    <row r="9" spans="1:6" ht="63.75">
-      <c r="A9" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="140" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-    </row>
-    <row r="11" spans="1:6" ht="63.75">
-      <c r="A11" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-    </row>
-    <row r="13" spans="1:6" ht="76.5">
-      <c r="A13" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="140" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-    </row>
-    <row r="15" spans="1:6" ht="63.75">
-      <c r="A15" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="A6" s="150" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="204">
+      <c r="A7" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5191,818 +5283,818 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="6.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A1" s="78"/>
-      <c r="B1" s="145" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="160" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="162"/>
     </row>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A3" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="81" t="s">
+      <c r="A3" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>103</v>
+      <c r="D3" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="82" t="s">
-        <v>104</v>
+      <c r="A4" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="83" t="s">
+      <c r="D4" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="82"/>
+      <c r="F6" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="60" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>143</v>
+      <c r="D12" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="82"/>
+      <c r="F12" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="82" t="s">
-        <v>104</v>
+      <c r="A13" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="83" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="82"/>
+      <c r="F13" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="82" t="s">
-        <v>104</v>
+      <c r="A14" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>143</v>
+      <c r="D14" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="82"/>
+      <c r="F14" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="82" t="s">
-        <v>104</v>
+      <c r="A15" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>143</v>
+      <c r="D15" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="82"/>
+      <c r="F15" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="82" t="s">
-        <v>104</v>
+      <c r="A16" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>143</v>
+      <c r="D16" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="82" t="s">
-        <v>104</v>
+      <c r="A17" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="83" t="s">
-        <v>143</v>
+      <c r="D17" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="82" t="s">
-        <v>104</v>
+      <c r="A18" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="83" t="s">
-        <v>143</v>
+      <c r="D18" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="82"/>
+      <c r="F18" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="82" t="s">
-        <v>104</v>
+      <c r="A19" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="83" t="s">
-        <v>143</v>
+      <c r="D19" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="82" t="s">
-        <v>104</v>
+      <c r="A20" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="83" t="s">
-        <v>143</v>
+      <c r="D20" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="82"/>
+      <c r="F20" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="82" t="s">
-        <v>104</v>
+      <c r="A21" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="83" t="s">
+      <c r="D21" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="82"/>
+      <c r="F21" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="82"/>
+      <c r="F23" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="82"/>
+      <c r="F24" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="82"/>
+      <c r="F25" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="82"/>
+      <c r="F26" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="82"/>
+      <c r="F27" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="82"/>
+      <c r="F28" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="82"/>
+      <c r="F29" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="60" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G22" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G25" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G26" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G27" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G29" s="83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G30" s="83" t="s">
-        <v>143</v>
+      <c r="D30" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="82"/>
+      <c r="F30" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="82" t="s">
-        <v>106</v>
+      <c r="A31" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G31" s="83" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="82"/>
+      <c r="F31" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="82" t="s">
-        <v>106</v>
+      <c r="A32" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G32" s="83" t="s">
-        <v>143</v>
+      <c r="D32" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="82"/>
+      <c r="F32" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="82" t="s">
-        <v>106</v>
+      <c r="A33" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G33" s="83" t="s">
-        <v>143</v>
+      <c r="D33" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="82"/>
+      <c r="F33" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="82" t="s">
-        <v>106</v>
+      <c r="A34" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G34" s="83" t="s">
-        <v>143</v>
+      <c r="D34" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="82"/>
+      <c r="F34" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="82" t="s">
-        <v>106</v>
+      <c r="A35" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G35" s="83" t="s">
-        <v>143</v>
+      <c r="D35" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="82"/>
+      <c r="F35" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="82" t="s">
-        <v>106</v>
+      <c r="A36" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="C36" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G36" s="83" t="s">
-        <v>143</v>
+      <c r="D36" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="82"/>
+      <c r="F36" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="82" t="s">
-        <v>106</v>
+      <c r="A37" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G37" s="83" t="s">
-        <v>143</v>
+      <c r="D37" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="82"/>
+      <c r="F37" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="82" t="s">
-        <v>106</v>
+      <c r="A38" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="83"/>
-      <c r="F38" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G38" s="83" t="s">
-        <v>143</v>
+      <c r="D38" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="82"/>
+      <c r="F38" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="82" t="s">
-        <v>106</v>
+      <c r="A39" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="B39" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G39" s="83" t="s">
-        <v>143</v>
+      <c r="D39" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="82"/>
+      <c r="F39" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6080,1261 +6172,1261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="5.375" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25">
-      <c r="A1" s="152" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
+      <c r="A1" s="167" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="153" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="153" t="s">
+      <c r="A2" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="168"/>
+      <c r="D2" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="153" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="168" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="153" t="s">
+      <c r="A3" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="153" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="169"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="168" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="168"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="97" t="s">
-        <v>124</v>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+    </row>
+    <row r="5" spans="1:12" ht="30">
+      <c r="A5" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="98">
+      <c r="A6" s="96">
         <v>1</v>
       </c>
-      <c r="B6" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="100">
+      <c r="B6" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="98">
         <v>4</v>
       </c>
-      <c r="D6" s="100" t="e">
+      <c r="D6" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E6" s="100" t="e">
+      <c r="E6" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="101" t="e">
+      <c r="F6" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="102" t="e">
+      <c r="G6" s="83"/>
+      <c r="H6" s="100" t="e">
         <f>D6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="100" t="e">
+      <c r="I6" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="100" t="e">
+      <c r="J6" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="100" t="e">
+      <c r="K6" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L6" s="101"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="100">
+      <c r="A7" s="96"/>
+      <c r="B7" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="98">
         <v>4</v>
       </c>
-      <c r="D7" s="100" t="e">
+      <c r="D7" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="100" t="e">
+      <c r="E7" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="101" t="e">
+      <c r="F7" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="102" t="e">
+      <c r="G7" s="83"/>
+      <c r="H7" s="100" t="e">
         <f t="shared" ref="H7:H16" si="0">D7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I7" s="100" t="e">
+      <c r="I7" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="100" t="e">
+      <c r="J7" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="100" t="e">
+      <c r="K7" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L7" s="101"/>
+      <c r="L7" s="99"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="100">
+      <c r="A8" s="96"/>
+      <c r="B8" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="98">
         <v>4</v>
       </c>
-      <c r="D8" s="100" t="e">
+      <c r="D8" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E8" s="100" t="e">
+      <c r="E8" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="101" t="e">
+      <c r="F8" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="102" t="e">
+      <c r="G8" s="83"/>
+      <c r="H8" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="100" t="e">
+      <c r="I8" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="100" t="e">
+      <c r="J8" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="100" t="e">
+      <c r="K8" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L8" s="101"/>
+      <c r="L8" s="99"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="100">
+      <c r="A9" s="96"/>
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="98">
         <v>4</v>
       </c>
-      <c r="D9" s="100" t="e">
+      <c r="D9" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E9" s="100" t="e">
+      <c r="E9" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F9" s="101" t="e">
+      <c r="F9" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="102" t="e">
+      <c r="G9" s="83"/>
+      <c r="H9" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I9" s="100" t="e">
+      <c r="I9" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J9" s="100" t="e">
+      <c r="J9" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="100" t="e">
+      <c r="K9" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L9" s="101"/>
+      <c r="L9" s="99"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="100">
+      <c r="A10" s="96"/>
+      <c r="B10" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="98">
         <v>4</v>
       </c>
-      <c r="D10" s="100" t="e">
+      <c r="D10" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E10" s="100" t="e">
+      <c r="E10" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="101" t="e">
+      <c r="F10" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="102" t="e">
+      <c r="G10" s="83"/>
+      <c r="H10" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I10" s="100" t="e">
+      <c r="I10" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J10" s="100" t="e">
+      <c r="J10" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="100" t="e">
+      <c r="K10" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L10" s="101"/>
+      <c r="L10" s="99"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="100">
+      <c r="A11" s="96"/>
+      <c r="B11" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="98">
         <v>4</v>
       </c>
-      <c r="D11" s="100" t="e">
+      <c r="D11" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E11" s="100" t="e">
+      <c r="E11" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F11" s="101" t="e">
+      <c r="F11" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="102" t="e">
+      <c r="G11" s="83"/>
+      <c r="H11" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I11" s="100" t="e">
+      <c r="I11" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="100" t="e">
+      <c r="J11" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="100" t="e">
+      <c r="K11" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L11" s="101"/>
+      <c r="L11" s="99"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="100">
+      <c r="A12" s="96"/>
+      <c r="B12" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="98">
         <v>4</v>
       </c>
-      <c r="D12" s="100" t="e">
+      <c r="D12" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E12" s="100" t="e">
+      <c r="E12" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F12" s="101" t="e">
+      <c r="F12" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="102" t="e">
+      <c r="G12" s="83"/>
+      <c r="H12" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I12" s="100" t="e">
+      <c r="I12" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="100" t="e">
+      <c r="J12" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="100" t="e">
+      <c r="K12" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L12" s="101"/>
+      <c r="L12" s="99"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="100">
+      <c r="A13" s="96"/>
+      <c r="B13" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="98">
         <v>4</v>
       </c>
-      <c r="D13" s="100" t="e">
+      <c r="D13" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E13" s="100" t="e">
+      <c r="E13" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="101" t="e">
+      <c r="F13" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="102" t="e">
+      <c r="G13" s="83"/>
+      <c r="H13" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I13" s="100" t="e">
+      <c r="I13" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J13" s="100" t="e">
+      <c r="J13" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="100" t="e">
+      <c r="K13" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L13" s="101"/>
+      <c r="L13" s="99"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="98"/>
-      <c r="B14" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="100">
+      <c r="A14" s="96"/>
+      <c r="B14" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="98">
         <v>3</v>
       </c>
-      <c r="D14" s="100" t="e">
+      <c r="D14" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E14" s="100" t="e">
+      <c r="E14" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="101" t="e">
+      <c r="F14" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="102" t="e">
+      <c r="G14" s="83"/>
+      <c r="H14" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I14" s="100" t="e">
+      <c r="I14" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J14" s="100" t="e">
+      <c r="J14" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="100" t="e">
+      <c r="K14" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L14" s="101"/>
+      <c r="L14" s="99"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="100">
+      <c r="A15" s="96"/>
+      <c r="B15" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="98">
         <v>4</v>
       </c>
-      <c r="D15" s="100" t="e">
+      <c r="D15" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E15" s="100" t="e">
+      <c r="E15" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="101" t="e">
+      <c r="F15" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="102" t="e">
+      <c r="G15" s="83"/>
+      <c r="H15" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I15" s="100" t="e">
+      <c r="I15" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J15" s="100" t="e">
+      <c r="J15" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="100" t="e">
+      <c r="K15" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L15" s="101"/>
+      <c r="L15" s="99"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="100">
+      <c r="A16" s="96"/>
+      <c r="B16" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="98">
         <v>5</v>
       </c>
-      <c r="D16" s="100" t="e">
+      <c r="D16" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E16" s="100" t="e">
+      <c r="E16" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F16" s="101" t="e">
+      <c r="F16" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="102" t="e">
+      <c r="G16" s="83"/>
+      <c r="H16" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I16" s="100" t="e">
+      <c r="I16" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="100" t="e">
+      <c r="J16" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="100" t="e">
+      <c r="K16" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L16" s="101"/>
+      <c r="L16" s="99"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="100">
+      <c r="A17" s="96"/>
+      <c r="B17" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="98">
         <v>1</v>
       </c>
-      <c r="D17" s="100" t="e">
+      <c r="D17" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E17" s="100" t="e">
+      <c r="E17" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F17" s="101" t="e">
+      <c r="F17" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="102" t="e">
+      <c r="G17" s="83"/>
+      <c r="H17" s="100" t="e">
         <f>D17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I17" s="100" t="e">
+      <c r="I17" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="100" t="e">
+      <c r="J17" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="100" t="e">
+      <c r="K17" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L17" s="101"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="148" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="103">
+      <c r="L17" s="99"/>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" s="163" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="164"/>
+      <c r="C18" s="101">
         <f>SUM(C6:C17)</f>
         <v>45</v>
       </c>
-      <c r="D18" s="103" t="e">
+      <c r="D18" s="101" t="e">
         <f>SUM(D6:D17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E18" s="103" t="e">
+      <c r="E18" s="101" t="e">
         <f>SUM(E6:E17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F18" s="104" t="e">
+      <c r="F18" s="102" t="e">
         <f>SUM(F6:F17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="103" t="e">
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="101" t="e">
         <f>SUM(I6:I17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J18" s="103" t="e">
+      <c r="J18" s="101" t="e">
         <f>SUM(J6:J17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K18" s="103" t="e">
+      <c r="K18" s="101" t="e">
         <f>SUM(K6:K17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L18" s="101" t="e">
+      <c r="L18" s="99" t="e">
         <f>IF(D18&gt;0,"Test lại",IF(F18&gt;0,"Test tiếp","Hoàn thành"))</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="150" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="107" t="e">
+    <row r="19" spans="1:12" ht="15">
+      <c r="A19" s="165" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="105" t="e">
         <f>D18/C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E19" s="107" t="e">
+      <c r="E19" s="105" t="e">
         <f>E18/C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F19" s="108" t="e">
+      <c r="F19" s="106" t="e">
         <f>F18/C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="107" t="e">
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="105" t="e">
         <f>IF(D19=0%, D19, I18/D18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J19" s="111" t="e">
+      <c r="J19" s="109" t="e">
         <f>IF(D19=0%, D19, J18/D18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="111" t="e">
+      <c r="K19" s="109" t="e">
         <f>IF(D19=0%, D19, K18/D18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L19" s="112" t="e">
+      <c r="L19" s="110" t="e">
         <f>IF(D19&gt;20, "Cảnh báo", IF(I19&gt;15%, "Cảnh báo", ""))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="98">
+      <c r="A20" s="96">
         <v>2</v>
       </c>
-      <c r="B20" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="100">
+      <c r="B20" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="98">
         <v>4</v>
       </c>
-      <c r="D20" s="100" t="e">
+      <c r="D20" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E20" s="100" t="e">
+      <c r="E20" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="101" t="e">
+      <c r="F20" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="102" t="e">
+      <c r="G20" s="83"/>
+      <c r="H20" s="100" t="e">
         <f>D20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I20" s="100" t="e">
+      <c r="I20" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J20" s="100" t="e">
+      <c r="J20" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K20" s="100" t="e">
+      <c r="K20" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L20" s="101"/>
+      <c r="L20" s="99"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="100">
+      <c r="A21" s="96"/>
+      <c r="B21" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="98">
         <v>4</v>
       </c>
-      <c r="D21" s="100" t="e">
+      <c r="D21" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E21" s="100" t="e">
+      <c r="E21" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F21" s="101" t="e">
+      <c r="F21" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="102" t="e">
+      <c r="G21" s="83"/>
+      <c r="H21" s="100" t="e">
         <f t="shared" ref="H21:H31" si="1">D21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I21" s="100" t="e">
+      <c r="I21" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J21" s="100" t="e">
+      <c r="J21" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="100" t="e">
+      <c r="K21" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L21" s="101"/>
+      <c r="L21" s="99"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="100">
+      <c r="A22" s="96"/>
+      <c r="B22" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="98">
         <v>4</v>
       </c>
-      <c r="D22" s="100" t="e">
+      <c r="D22" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E22" s="100" t="e">
+      <c r="E22" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F22" s="101" t="e">
+      <c r="F22" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="102" t="e">
+      <c r="G22" s="83"/>
+      <c r="H22" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I22" s="100" t="e">
+      <c r="I22" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J22" s="100" t="e">
+      <c r="J22" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="100" t="e">
+      <c r="K22" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L22" s="101"/>
+      <c r="L22" s="99"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="100">
+      <c r="A23" s="96"/>
+      <c r="B23" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="98">
         <v>4</v>
       </c>
-      <c r="D23" s="100" t="e">
+      <c r="D23" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E23" s="100" t="e">
+      <c r="E23" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="101" t="e">
+      <c r="F23" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="102" t="e">
+      <c r="G23" s="83"/>
+      <c r="H23" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I23" s="100" t="e">
+      <c r="I23" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" s="100" t="e">
+      <c r="J23" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="100" t="e">
+      <c r="K23" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L23" s="101"/>
+      <c r="L23" s="99"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="100">
+      <c r="A24" s="96"/>
+      <c r="B24" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="98">
         <v>4</v>
       </c>
-      <c r="D24" s="100" t="e">
+      <c r="D24" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="100" t="e">
+      <c r="E24" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="101" t="e">
+      <c r="F24" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="102" t="e">
+      <c r="G24" s="83"/>
+      <c r="H24" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I24" s="100" t="e">
+      <c r="I24" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="100" t="e">
+      <c r="J24" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="100" t="e">
+      <c r="K24" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L24" s="101"/>
+      <c r="L24" s="99"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="98"/>
-      <c r="B25" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="100">
+      <c r="A25" s="96"/>
+      <c r="B25" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="98">
         <v>4</v>
       </c>
-      <c r="D25" s="100" t="e">
+      <c r="D25" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E25" s="100" t="e">
+      <c r="E25" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" s="101" t="e">
+      <c r="F25" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="102" t="e">
+      <c r="G25" s="83"/>
+      <c r="H25" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I25" s="100" t="e">
+      <c r="I25" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="100" t="e">
+      <c r="J25" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="100" t="e">
+      <c r="K25" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L25" s="101"/>
+      <c r="L25" s="99"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="98"/>
-      <c r="B26" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="100">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="98">
         <v>4</v>
       </c>
-      <c r="D26" s="100" t="e">
+      <c r="D26" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E26" s="100" t="e">
+      <c r="E26" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="101" t="e">
+      <c r="F26" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="102" t="e">
+      <c r="G26" s="83"/>
+      <c r="H26" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I26" s="100" t="e">
+      <c r="I26" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="100" t="e">
+      <c r="J26" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="100" t="e">
+      <c r="K26" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L26" s="101"/>
+      <c r="L26" s="99"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="100">
+      <c r="A27" s="96"/>
+      <c r="B27" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="98">
         <v>4</v>
       </c>
-      <c r="D27" s="100" t="e">
+      <c r="D27" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E27" s="100" t="e">
+      <c r="E27" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F27" s="101" t="e">
+      <c r="F27" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="102" t="e">
+      <c r="G27" s="83"/>
+      <c r="H27" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I27" s="100" t="e">
+      <c r="I27" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" s="100" t="e">
+      <c r="J27" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="100" t="e">
+      <c r="K27" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L27" s="101"/>
+      <c r="L27" s="99"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="100">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="98">
         <v>3</v>
       </c>
-      <c r="D28" s="100" t="e">
+      <c r="D28" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="100" t="e">
+      <c r="E28" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F28" s="101" t="e">
+      <c r="F28" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="102" t="e">
+      <c r="G28" s="83"/>
+      <c r="H28" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I28" s="100" t="e">
+      <c r="I28" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" s="100" t="e">
+      <c r="J28" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="100" t="e">
+      <c r="K28" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L28" s="101"/>
+      <c r="L28" s="99"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="100">
+      <c r="A29" s="96"/>
+      <c r="B29" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="98">
         <v>4</v>
       </c>
-      <c r="D29" s="100" t="e">
+      <c r="D29" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E29" s="100" t="e">
+      <c r="E29" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F29" s="101" t="e">
+      <c r="F29" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="102" t="e">
+      <c r="G29" s="83"/>
+      <c r="H29" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I29" s="100" t="e">
+      <c r="I29" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="100" t="e">
+      <c r="J29" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K29" s="100" t="e">
+      <c r="K29" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="101"/>
+      <c r="L29" s="99"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="100">
+      <c r="A30" s="96"/>
+      <c r="B30" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="98">
         <v>5</v>
       </c>
-      <c r="D30" s="100" t="e">
+      <c r="D30" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E30" s="100" t="e">
+      <c r="E30" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F30" s="101" t="e">
+      <c r="F30" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="102" t="e">
+      <c r="G30" s="83"/>
+      <c r="H30" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I30" s="100" t="e">
+      <c r="I30" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="100" t="e">
+      <c r="J30" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="100" t="e">
+      <c r="K30" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L30" s="101"/>
+      <c r="L30" s="99"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="100">
+      <c r="A31" s="96"/>
+      <c r="B31" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="98">
         <v>1</v>
       </c>
-      <c r="D31" s="100" t="e">
+      <c r="D31" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E31" s="100" t="e">
+      <c r="E31" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F31" s="101" t="e">
+      <c r="F31" s="99" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="102" t="e">
+      <c r="G31" s="83"/>
+      <c r="H31" s="100" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I31" s="100" t="e">
+      <c r="I31" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="100" t="e">
+      <c r="J31" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "BackEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="100" t="e">
+      <c r="K31" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="101"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="148" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="103">
+      <c r="L31" s="99"/>
+    </row>
+    <row r="32" spans="1:12" ht="15">
+      <c r="A32" s="163" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="164"/>
+      <c r="C32" s="101">
         <f>SUM(C20:C31)</f>
         <v>45</v>
       </c>
-      <c r="D32" s="103" t="e">
+      <c r="D32" s="101" t="e">
         <f>SUM(D20:D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E32" s="103" t="e">
+      <c r="E32" s="101" t="e">
         <f>SUM(E20:E31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" s="104" t="e">
+      <c r="F32" s="102" t="e">
         <f>SUM(F20:F31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="103" t="e">
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="101" t="e">
         <f>SUM(I20:I31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="103" t="e">
+      <c r="J32" s="101" t="e">
         <f>SUM(J20:J31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="103" t="e">
+      <c r="K32" s="101" t="e">
         <f>SUM(K20:K31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="101" t="e">
+      <c r="L32" s="99" t="e">
         <f>IF(D32&gt;0,"Test lại",IF(F32&gt;0,"Test tiếp","Hoàn thành"))</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="150" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="107" t="e">
+    <row r="33" spans="1:12" ht="15">
+      <c r="A33" s="165" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="105" t="e">
         <f>D32/C32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E33" s="107" t="e">
+      <c r="E33" s="105" t="e">
         <f>E32/C32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="108" t="e">
+      <c r="F33" s="106" t="e">
         <f>F32/C32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G33" s="109"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="107" t="e">
+      <c r="G33" s="107"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="105" t="e">
         <f>IF(D32=0%, D32, I32/D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="111" t="e">
+      <c r="J33" s="109" t="e">
         <f>IF(D33=0%, D33, J32/D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="111" t="e">
+      <c r="K33" s="109" t="e">
         <f>IF(D33=0%, D33, K32/D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="112" t="e">
+      <c r="L33" s="110" t="e">
         <f>IF(D33&gt;20, "Cảnh báo", IF(I33&gt;15%, "Cảnh báo", ""))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+    </row>
+    <row r="35" spans="1:12" ht="15">
+      <c r="A35" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7431,30 +7523,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51" customHeight="1">
       <c r="A1" s="52"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="156" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="139" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="42"/>
@@ -7465,52 +7557,52 @@
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="121"/>
-      <c r="B3" s="136" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="42"/>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="128" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="45"/>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="135" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="133"/>
+      <c r="E5" s="143"/>
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="42"/>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="133"/>
-      <c r="F6" s="134"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="142" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="143"/>
+      <c r="F6" s="144"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="46"/>
@@ -7538,199 +7630,199 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51">
+    <row r="9" spans="1:6" ht="38.25">
       <c r="A9" s="42"/>
       <c r="B9" s="56">
         <v>1</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="158" t="s">
-        <v>177</v>
+        <v>114</v>
+      </c>
+      <c r="E9" s="126" t="s">
+        <v>138</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="38.25">
       <c r="A10" s="42"/>
       <c r="B10" s="56">
         <v>2</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="158" t="s">
-        <v>178</v>
+        <v>114</v>
+      </c>
+      <c r="E10" s="126" t="s">
+        <v>139</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="38.25">
       <c r="A11" s="59"/>
       <c r="B11" s="56">
         <v>3</v>
       </c>
       <c r="C11" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="158" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51">
+    </row>
+    <row r="12" spans="1:6" ht="38.25">
       <c r="A12" s="59"/>
       <c r="B12" s="56">
         <v>4</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="158" t="s">
-        <v>178</v>
+        <v>116</v>
+      </c>
+      <c r="E12" s="126" t="s">
+        <v>139</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="51">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38.25">
       <c r="A13" s="59"/>
       <c r="B13" s="56">
         <v>5</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="158" t="s">
-        <v>180</v>
+        <v>120</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>197</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38.25">
       <c r="A14" s="59"/>
       <c r="B14" s="56">
         <v>6</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="158" t="s">
-        <v>181</v>
+        <v>120</v>
+      </c>
+      <c r="E14" s="126" t="s">
+        <v>141</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="38.25">
       <c r="A15" s="59"/>
       <c r="B15" s="56">
         <v>7</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="158" t="s">
-        <v>182</v>
+        <v>120</v>
+      </c>
+      <c r="E15" s="126" t="s">
+        <v>142</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="51">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38.25">
       <c r="A16" s="59"/>
       <c r="B16" s="56">
         <v>8</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="158" t="s">
-        <v>279</v>
+        <v>124</v>
+      </c>
+      <c r="E16" s="126" t="s">
+        <v>194</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="51">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38.25">
       <c r="A17" s="59"/>
       <c r="B17" s="56">
         <v>9</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="159" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="158" t="s">
-        <v>185</v>
+        <v>127</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>145</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="51">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="38.25">
       <c r="A18" s="59"/>
       <c r="B18" s="56">
         <v>10</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="158" t="s">
-        <v>186</v>
+        <v>126</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>146</v>
       </c>
       <c r="F18" s="65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="38.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="128">
+        <v>11</v>
+      </c>
+      <c r="C19" s="129" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="131" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51">
-      <c r="A19" s="59"/>
-      <c r="B19" s="56">
-        <v>11</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="159" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="158" t="s">
-        <v>188</v>
       </c>
       <c r="F19" s="65" t="s">
         <v>200</v>
@@ -7742,70 +7834,70 @@
         <v>12</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="159" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="158" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>202</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="51">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="38.25">
       <c r="A21" s="59"/>
       <c r="B21" s="56">
         <v>13</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="51">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="38.25">
       <c r="A22" s="59"/>
       <c r="B22" s="56">
         <v>14</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="158" t="s">
-        <v>190</v>
+        <v>132</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>148</v>
       </c>
       <c r="F22" s="65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="39">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25.5">
       <c r="A23" s="59"/>
       <c r="B23" s="56">
         <v>15</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25">
@@ -7814,16 +7906,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="158" t="s">
-        <v>192</v>
+        <v>135</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>205</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="38.25">
@@ -7832,34 +7924,86 @@
         <v>17</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="158" t="s">
-        <v>193</v>
+        <v>136</v>
+      </c>
+      <c r="E25" s="126" t="s">
+        <v>150</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="38.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25.5">
+      <c r="A26" s="59"/>
       <c r="B26" s="56">
         <v>18</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="158" t="s">
-        <v>194</v>
+        <v>137</v>
+      </c>
+      <c r="E26" s="126" t="s">
+        <v>209</v>
       </c>
       <c r="F26" s="65" t="s">
-        <v>280</v>
-      </c>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.5">
+      <c r="A27" s="59"/>
+      <c r="B27" s="56">
+        <v>19</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="126" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5">
+      <c r="A28" s="59"/>
+      <c r="B28" s="56">
+        <v>20</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="59"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="65"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="56"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7883,134 +8027,134 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="A1" s="153" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
+      <c r="A6" s="150" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="133" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
+      <c r="A8" s="150" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
     </row>
     <row r="9" spans="1:6" ht="76.5">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="127" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8025,167 +8169,142 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="A1" s="153" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="48" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="77" t="s">
+      <c r="A6" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="63.75">
+      <c r="A7" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="125" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="140" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-    </row>
-    <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="77" t="s">
+      <c r="A8" s="150" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
+    </row>
+    <row r="9" spans="1:6" ht="63.75">
+      <c r="A9" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="140" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-    </row>
-    <row r="11" spans="1:6" ht="76.5">
-      <c r="A11" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="66" t="s">
+      <c r="B9" s="125" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="C9" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8197,159 +8316,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="53.25" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="A1" s="153" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="102">
-      <c r="A7" s="77" t="s">
+      <c r="A6" s="150" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="76.5">
+      <c r="A7" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="140" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-    </row>
-    <row r="9" spans="1:6" ht="102">
-      <c r="A9" s="77" t="s">
+      <c r="A8" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
+    </row>
+    <row r="9" spans="1:6" ht="76.5">
+      <c r="A9" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="125" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="140" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-    </row>
-    <row r="11" spans="1:6" ht="76.5">
-      <c r="A11" s="77" t="s">
+      <c r="A10" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="152"/>
+    </row>
+    <row r="11" spans="1:6" ht="63.75">
+      <c r="A11" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="125" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8365,167 +8484,117 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="A1" s="155" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
+      <c r="A6" s="150" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="1:6" ht="89.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="140" t="s">
+      <c r="B7" s="125" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-    </row>
-    <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="140" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-    </row>
-    <row r="11" spans="1:6" ht="76.5">
-      <c r="A11" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="C7" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8537,159 +8606,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="B7 C7"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="A1" s="155" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.25">
-      <c r="A5" s="76" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="89.25">
-      <c r="A7" s="77" t="s">
+      <c r="A6" s="150" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="76.5">
+      <c r="A7" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="140" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-    </row>
-    <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="77" t="s">
+      <c r="A8" s="156" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="158"/>
+    </row>
+    <row r="9" spans="1:6" ht="63.75">
+      <c r="A9" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="140" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-    </row>
-    <row r="11" spans="1:6" ht="76.5">
-      <c r="A11" s="77" t="s">
+      <c r="A10" s="156" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+    </row>
+    <row r="11" spans="1:6" ht="63.75">
+      <c r="A11" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="125" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8708,109 +8777,109 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="A1" s="153" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="63.75">
-      <c r="A7" s="77" t="s">
+      <c r="A6" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="89.25">
+      <c r="A7" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8827,108 +8896,109 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" customHeight="1">
-      <c r="A1" s="74"/>
-      <c r="B1" s="143" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
+    <row r="1" spans="1:6" ht="81" customHeight="1">
+      <c r="A1" s="73"/>
+      <c r="B1" s="155" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="140" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="51">
-      <c r="A7" s="77" t="s">
+      <c r="A6" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="114.75">
+      <c r="A7" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/Testcase_Nhóm 9.xlsx
+++ b/Document/Testcase_Nhóm 9.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7440" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7440" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TÀI LIỆU TEST CASE" sheetId="1" r:id="rId1"/>
@@ -31,12 +26,12 @@
   <externalReferences>
     <externalReference r:id="rId16"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="258">
   <si>
     <t>Tên dự án</t>
   </si>
@@ -95,9 +90,6 @@
     <t>Ý nghĩa</t>
   </si>
   <si>
-    <t>QLCHBH-GHN</t>
-  </si>
-  <si>
     <t>Võ Việt Hà</t>
   </si>
   <si>
@@ -155,45 +147,24 @@
     <t>FU_002.02</t>
   </si>
   <si>
-    <t>FU_002.03</t>
-  </si>
-  <si>
-    <t>FU_002.04</t>
-  </si>
-  <si>
     <t>FU_003.01</t>
   </si>
   <si>
     <t>FU_003.02</t>
   </si>
   <si>
-    <t>FU_003.04</t>
-  </si>
-  <si>
     <t>FU_001.01</t>
   </si>
   <si>
     <t>FU_001.02</t>
   </si>
   <si>
-    <t>FU_001.04</t>
-  </si>
-  <si>
     <t>01/06/2014</t>
   </si>
   <si>
     <t>FU_004.01</t>
   </si>
   <si>
-    <t>FU_004.02</t>
-  </si>
-  <si>
-    <t>FU_004.03</t>
-  </si>
-  <si>
-    <t>FU_004.04</t>
-  </si>
-  <si>
     <t>FU_005.01</t>
   </si>
   <si>
@@ -318,9 +289,6 @@
   </si>
   <si>
     <t>* Đánh giá chất lượng</t>
-  </si>
-  <si>
-    <t>Quản lý cửa hàng bách hóa</t>
   </si>
   <si>
     <t>FU_001</t>
@@ -396,9 +364,6 @@
     <t>Sửa thông tin sản phẩm</t>
   </si>
   <si>
-    <t>Xóa thông tin sản phẩm</t>
-  </si>
-  <si>
     <t>Quản lý khuyến mãi</t>
   </si>
   <si>
@@ -414,9 +379,6 @@
     <t>Quản lý đơn đặt hàng</t>
   </si>
   <si>
-    <t>Sửa thông tin đơn đặt hàng</t>
-  </si>
-  <si>
     <t>Quản lý thông tin website</t>
   </si>
   <si>
@@ -466,12 +428,6 @@
   </si>
   <si>
     <t>Chức năng này cho phép chủ cửa hàng xóa thông tin khuyến mãi</t>
-  </si>
-  <si>
-    <t>Thêm thông tin đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>Xóa thông tin đơn đặt hàng</t>
   </si>
   <si>
     <t>Chức năng này cho phép nhân viên thêm mới thông tin website</t>
@@ -1164,6 +1120,30 @@
 - Thông báo đặt hàng thành công tới người dùng
 </t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
 </sst>
 </file>
 
@@ -1176,7 +1156,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1189,7 +1169,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2178,7 +2158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2621,6 +2601,8 @@
     <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2637,7 +2619,7 @@
     <cellStyle name="Normal_Sheet1" xfId="2"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="3"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -2792,48 +2774,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2864,11 +2804,11 @@
       <sheetName val="Test report"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1">
         <row r="4">
           <cell r="A4" t="str">
             <v>Lần 1</v>
@@ -4077,7 +4017,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4126,7 +4066,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4161,7 +4101,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4372,26 +4312,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="56.25" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="138" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C1" s="138"/>
       <c r="D1" s="138"/>
@@ -4401,7 +4341,7 @@
       <c r="H1" s="138"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -4412,13 +4352,13 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="135" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D3" s="135"/>
       <c r="E3" s="135"/>
@@ -4426,18 +4366,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="135" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D4" s="135"/>
       <c r="E4" s="135"/>
@@ -4450,13 +4390,13 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="136" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D5" s="137"/>
       <c r="E5" s="137"/>
@@ -4467,7 +4407,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="136"/>
       <c r="C6" s="137"/>
@@ -4482,7 +4422,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
@@ -4493,7 +4433,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -4504,7 +4444,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -4515,7 +4455,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="30" t="s">
         <v>9</v>
@@ -4553,22 +4493,22 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="41" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I12" s="15"/>
     </row>
@@ -4578,18 +4518,18 @@
         <v>42437</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D13" s="132" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="132" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="39" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -4598,13 +4538,13 @@
       <c r="B14" s="21"/>
       <c r="C14" s="17"/>
       <c r="D14" s="132" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="22"/>
       <c r="H14" s="39" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I14" s="15"/>
     </row>
@@ -4613,13 +4553,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="17"/>
       <c r="D15" s="132" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="22"/>
       <c r="H15" s="39" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I15" s="15"/>
     </row>
@@ -4650,7 +4590,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="40"/>
     </row>
-    <row r="21" spans="2:8" ht="16.5">
+    <row r="21" spans="2:8">
       <c r="B21" s="30" t="s">
         <v>16</v>
       </c>
@@ -4661,7 +4601,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" ht="16.5">
+    <row r="22" spans="2:8">
       <c r="B22" s="27" t="s">
         <v>17</v>
       </c>
@@ -4674,7 +4614,7 @@
       <c r="G22" s="29"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" ht="16.5">
+    <row r="23" spans="2:8">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
@@ -4683,7 +4623,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" ht="16.5">
+    <row r="24" spans="2:8">
       <c r="B24" s="21"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
@@ -4692,7 +4632,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" ht="16.5">
+    <row r="25" spans="2:8">
       <c r="B25" s="21"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
@@ -4701,7 +4641,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" ht="16.5">
+    <row r="26" spans="2:8">
       <c r="B26" s="21"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
@@ -4710,7 +4650,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" ht="16.5">
+    <row r="27" spans="2:8">
       <c r="B27" s="21"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
@@ -4719,7 +4659,7 @@
       <c r="G27" s="22"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" ht="16.5">
+    <row r="28" spans="2:8">
       <c r="B28" s="21"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
@@ -4728,7 +4668,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" ht="16.5">
+    <row r="29" spans="2:8">
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
       <c r="D29" s="25"/>
@@ -4754,23 +4694,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1">
       <c r="A1" s="155" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -4783,13 +4723,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -4802,7 +4742,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -4818,27 +4758,27 @@
     </row>
     <row r="5" spans="1:6" s="118" customFormat="1" ht="35.25" customHeight="1">
       <c r="A5" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -4848,13 +4788,13 @@
     </row>
     <row r="7" spans="1:6" ht="89.25">
       <c r="A7" s="76" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -4878,18 +4818,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="79.5" customHeight="1">
       <c r="A1" s="155" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -4902,13 +4842,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -4921,7 +4861,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -4937,27 +4877,27 @@
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="116" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="116" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -4965,15 +4905,15 @@
       <c r="E6" s="151"/>
       <c r="F6" s="152"/>
     </row>
-    <row r="7" spans="1:6" ht="127.5">
+    <row r="7" spans="1:6" ht="153">
       <c r="A7" s="76" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -4993,23 +4933,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
       <c r="A1" s="155" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -5022,13 +4962,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -5041,7 +4981,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -5057,27 +4997,27 @@
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="116" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="116" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -5085,15 +5025,15 @@
       <c r="E6" s="151"/>
       <c r="F6" s="152"/>
     </row>
-    <row r="7" spans="1:6" ht="63.75">
+    <row r="7" spans="1:6" ht="89.25">
       <c r="A7" s="76" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -5101,7 +5041,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="150" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B8" s="151"/>
       <c r="C8" s="151"/>
@@ -5109,15 +5049,15 @@
       <c r="E8" s="151"/>
       <c r="F8" s="152"/>
     </row>
-    <row r="9" spans="1:6" ht="63.75">
+    <row r="9" spans="1:6" ht="102">
       <c r="A9" s="76" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -5125,7 +5065,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="150" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B10" s="151"/>
       <c r="C10" s="151"/>
@@ -5133,15 +5073,15 @@
       <c r="E10" s="151"/>
       <c r="F10" s="152"/>
     </row>
-    <row r="11" spans="1:6" ht="63.75">
+    <row r="11" spans="1:6" ht="76.5">
       <c r="A11" s="76" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -5167,19 +5107,19 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54.75" customHeight="1">
       <c r="A1" s="155" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -5192,10 +5132,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113">
         <v>42437</v>
@@ -5211,7 +5151,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -5225,29 +5165,29 @@
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.25">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -5255,15 +5195,15 @@
       <c r="E6" s="151"/>
       <c r="F6" s="152"/>
     </row>
-    <row r="7" spans="1:6" ht="204">
+    <row r="7" spans="1:6" ht="229.5">
       <c r="A7" s="76" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -5281,27 +5221,27 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="6.25" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54.75" customHeight="1">
       <c r="A1" s="77"/>
       <c r="B1" s="160" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C1" s="161"/>
       <c r="D1" s="161"/>
@@ -5320,848 +5260,701 @@
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1">
       <c r="A3" s="80" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="82"/>
+        <v>255</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>256</v>
+      </c>
       <c r="F6" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G6" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E7" s="82"/>
       <c r="F7" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C8" s="76" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E8" s="82"/>
       <c r="F8" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C9" s="76" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E9" s="82"/>
       <c r="F9" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="82"/>
+        <v>255</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>257</v>
+      </c>
       <c r="F11" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E13" s="82"/>
       <c r="F13" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E15" s="82"/>
       <c r="F15" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>187</v>
+        <v>64</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>170</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>134</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>104</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E20" s="82"/>
       <c r="F20" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="81" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G21" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>183</v>
+        <v>64</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E22" s="82"/>
       <c r="F22" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>113</v>
+        <v>64</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>111</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E24" s="82"/>
       <c r="F24" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C25" s="76" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E25" s="82"/>
       <c r="F25" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E26" s="82"/>
       <c r="F26" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E27" s="82"/>
       <c r="F27" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E28" s="82"/>
       <c r="F28" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E30" s="82"/>
       <c r="F30" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E31" s="82"/>
       <c r="F31" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E32" s="82"/>
       <c r="F32" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E33" s="82"/>
       <c r="F33" s="81" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" s="82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="G36" s="82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" s="82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" s="82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" s="82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D21">
-    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D4:D33">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="equal">
       <formula>"U"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E21">
-    <cfRule type="expression" dxfId="24" priority="8">
+  <conditionalFormatting sqref="E4:E33">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$E4="L"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>$E4="M"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>$E4="H"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D39">
-    <cfRule type="cellIs" dxfId="21" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"U"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E39">
-    <cfRule type="expression" dxfId="18" priority="1">
-      <formula>$E22="L"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
-      <formula>$E22="M"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
-      <formula>$E22="H"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Data Values" prompt="H : High_x000a_M : Medium_x000a_L  : Low" sqref="E4:E39">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Data Values" prompt="H : High_x000a_M : Medium_x000a_L  : Low" sqref="E4:E33">
       <formula1>"H, M, L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data value" prompt="P - Pass_x000a_F - Fail_x000a_U - Untest_x000a_N/A - Not available" sqref="D4:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data value" prompt="P - Pass_x000a_F - Fail_x000a_U - Untest_x000a_N/A - Not available" sqref="D4:D33">
       <formula1>"P,F,U,N/A"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B4" location="BackEnd!B9" display="Phân hệ Backend"/>
-    <hyperlink ref="B22" location="BackEnd!B9" display="Phân hệ Backend"/>
+    <hyperlink ref="B19" location="BackEnd!B9" display="Phân hệ Backend"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6172,29 +5965,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="3.625" customWidth="1"/>
-    <col min="8" max="8" width="5.375" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25">
       <c r="A1" s="167" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -6210,22 +6003,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="83" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B2" s="168" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="168"/>
       <c r="D2" s="83" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E2" s="168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="168"/>
       <c r="G2" s="83"/>
       <c r="H2" s="168" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I2" s="168"/>
       <c r="J2" s="168"/>
@@ -6234,20 +6027,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="83" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" s="168" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="C3" s="168"/>
       <c r="D3" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="169"/>
+        <v>71</v>
+      </c>
+      <c r="E3" s="169" t="s">
+        <v>100</v>
+      </c>
       <c r="F3" s="168"/>
       <c r="G3" s="83"/>
       <c r="H3" s="168" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I3" s="168"/>
       <c r="J3" s="169"/>
@@ -6268,40 +6063,40 @@
       <c r="K4" s="83"/>
       <c r="L4" s="83"/>
     </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:12" ht="45">
       <c r="A5" s="134" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G5" s="90"/>
       <c r="H5" s="91" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J5" s="93" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K5" s="94" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L5" s="95" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6309,105 +6104,90 @@
         <v>1</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C6" s="98">
-        <v>4</v>
-      </c>
-      <c r="D6" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="170" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="171" t="s">
+        <v>250</v>
       </c>
       <c r="G6" s="83"/>
-      <c r="H6" s="100" t="e">
+      <c r="H6" s="100" t="str">
         <f>D6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="I6" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="170" t="s">
+        <v>252</v>
       </c>
       <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="96"/>
       <c r="B7" s="97" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C7" s="98">
-        <v>4</v>
-      </c>
-      <c r="D7" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="171" t="s">
+        <v>250</v>
       </c>
       <c r="G7" s="83"/>
-      <c r="H7" s="100" t="e">
+      <c r="H7" s="100" t="str">
         <f t="shared" ref="H7:H16" si="0">D7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="I7" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="170" t="s">
+        <v>253</v>
       </c>
       <c r="L7" s="99"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="96"/>
       <c r="B8" s="97" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C8" s="98">
-        <v>4</v>
-      </c>
-      <c r="D8" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="171" t="s">
+        <v>250</v>
       </c>
       <c r="G8" s="83"/>
-      <c r="H8" s="100" t="e">
+      <c r="H8" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I8" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -6426,66 +6206,57 @@
     <row r="9" spans="1:12">
       <c r="A9" s="96"/>
       <c r="B9" s="97" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C9" s="98">
-        <v>4</v>
-      </c>
-      <c r="D9" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="171" t="s">
+        <v>250</v>
       </c>
       <c r="G9" s="83"/>
-      <c r="H9" s="100" t="e">
+      <c r="H9" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "L")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="K9" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="L9" s="99"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="96"/>
       <c r="B10" s="97" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C10" s="98">
-        <v>4</v>
-      </c>
-      <c r="D10" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="171" t="s">
+        <v>250</v>
       </c>
       <c r="G10" s="83"/>
-      <c r="H10" s="100" t="e">
+      <c r="H10" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I10" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -6504,27 +6275,24 @@
     <row r="11" spans="1:12">
       <c r="A11" s="96"/>
       <c r="B11" s="97" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C11" s="98">
-        <v>4</v>
-      </c>
-      <c r="D11" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="171" t="s">
+        <v>250</v>
       </c>
       <c r="G11" s="83"/>
-      <c r="H11" s="100" t="e">
+      <c r="H11" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I11" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -6543,27 +6311,24 @@
     <row r="12" spans="1:12">
       <c r="A12" s="96"/>
       <c r="B12" s="97" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C12" s="98">
-        <v>4</v>
-      </c>
-      <c r="D12" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="171" t="s">
+        <v>250</v>
       </c>
       <c r="G12" s="83"/>
-      <c r="H12" s="100" t="e">
+      <c r="H12" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I12" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -6582,27 +6347,24 @@
     <row r="13" spans="1:12">
       <c r="A13" s="96"/>
       <c r="B13" s="97" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C13" s="98">
-        <v>4</v>
-      </c>
-      <c r="D13" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="171" t="s">
+        <v>250</v>
       </c>
       <c r="G13" s="83"/>
-      <c r="H13" s="100" t="e">
+      <c r="H13" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I13" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -6621,27 +6383,24 @@
     <row r="14" spans="1:12">
       <c r="A14" s="96"/>
       <c r="B14" s="97" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C14" s="98">
-        <v>3</v>
-      </c>
-      <c r="D14" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="171" t="s">
+        <v>250</v>
       </c>
       <c r="G14" s="83"/>
-      <c r="H14" s="100" t="e">
+      <c r="H14" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I14" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 1",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -6660,7 +6419,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="96"/>
       <c r="B15" s="97" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C15" s="98">
         <v>4</v>
@@ -6699,7 +6458,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="96"/>
       <c r="B16" s="97" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C16" s="98">
         <v>5</v>
@@ -6738,7 +6497,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="96"/>
       <c r="B17" s="97" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C17" s="98">
         <v>1</v>
@@ -6774,14 +6533,14 @@
       </c>
       <c r="L17" s="99"/>
     </row>
-    <row r="18" spans="1:12" ht="15">
+    <row r="18" spans="1:12">
       <c r="A18" s="163" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B18" s="164"/>
       <c r="C18" s="101">
         <f>SUM(C6:C17)</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D18" s="101" t="e">
         <f>SUM(D6:D17)</f>
@@ -6814,9 +6573,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15">
+    <row r="19" spans="1:12">
       <c r="A19" s="165" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B19" s="166"/>
       <c r="C19" s="166"/>
@@ -6856,27 +6615,24 @@
         <v>2</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C20" s="98">
-        <v>4</v>
-      </c>
-      <c r="D20" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="98">
+        <v>2</v>
+      </c>
+      <c r="F20" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="G20" s="83"/>
-      <c r="H20" s="100" t="e">
+      <c r="H20" s="100" t="str">
         <f>D20</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I20" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -6895,27 +6651,24 @@
     <row r="21" spans="1:12">
       <c r="A21" s="96"/>
       <c r="B21" s="97" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C21" s="98">
-        <v>4</v>
-      </c>
-      <c r="D21" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>2</v>
+      </c>
+      <c r="D21" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="98">
+        <v>2</v>
+      </c>
+      <c r="F21" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="G21" s="83"/>
-      <c r="H21" s="100" t="e">
+      <c r="H21" s="100" t="str">
         <f t="shared" ref="H21:H31" si="1">D21</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I21" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -6934,27 +6687,24 @@
     <row r="22" spans="1:12">
       <c r="A22" s="96"/>
       <c r="B22" s="97" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C22" s="98">
-        <v>4</v>
-      </c>
-      <c r="D22" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>3</v>
+      </c>
+      <c r="D22" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="98">
+        <v>3</v>
+      </c>
+      <c r="F22" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="G22" s="83"/>
-      <c r="H22" s="100" t="e">
+      <c r="H22" s="100" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I22" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -6973,27 +6723,24 @@
     <row r="23" spans="1:12">
       <c r="A23" s="96"/>
       <c r="B23" s="97" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C23" s="98">
-        <v>4</v>
-      </c>
-      <c r="D23" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D23" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="98">
+        <v>1</v>
+      </c>
+      <c r="F23" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="G23" s="83"/>
-      <c r="H23" s="100" t="e">
+      <c r="H23" s="100" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I23" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -7012,27 +6759,24 @@
     <row r="24" spans="1:12">
       <c r="A24" s="96"/>
       <c r="B24" s="97" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C24" s="98">
-        <v>4</v>
-      </c>
-      <c r="D24" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="98">
+        <v>3</v>
+      </c>
+      <c r="F24" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="G24" s="83"/>
-      <c r="H24" s="100" t="e">
+      <c r="H24" s="100" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I24" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -7051,27 +6795,24 @@
     <row r="25" spans="1:12">
       <c r="A25" s="96"/>
       <c r="B25" s="97" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C25" s="98">
-        <v>4</v>
-      </c>
-      <c r="D25" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E25" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="98">
+        <v>1</v>
+      </c>
+      <c r="F25" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="G25" s="83"/>
-      <c r="H25" s="100" t="e">
+      <c r="H25" s="100" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I25" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -7090,27 +6831,24 @@
     <row r="26" spans="1:12">
       <c r="A26" s="96"/>
       <c r="B26" s="97" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C26" s="98">
-        <v>4</v>
-      </c>
-      <c r="D26" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D26" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="98">
+        <v>1</v>
+      </c>
+      <c r="F26" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="G26" s="83"/>
-      <c r="H26" s="100" t="e">
+      <c r="H26" s="100" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I26" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -7129,27 +6867,24 @@
     <row r="27" spans="1:12">
       <c r="A27" s="96"/>
       <c r="B27" s="97" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C27" s="98">
-        <v>4</v>
-      </c>
-      <c r="D27" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="98">
+        <v>1</v>
+      </c>
+      <c r="F27" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="G27" s="83"/>
-      <c r="H27" s="100" t="e">
+      <c r="H27" s="100" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I27" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -7168,27 +6903,24 @@
     <row r="28" spans="1:12">
       <c r="A28" s="96"/>
       <c r="B28" s="97" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C28" s="98">
-        <v>3</v>
-      </c>
-      <c r="D28" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="98" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "P")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="99" t="e">
-        <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "U")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="98">
+        <v>1</v>
+      </c>
+      <c r="F28" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="G28" s="83"/>
-      <c r="H28" s="100" t="e">
+      <c r="H28" s="100" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I28" s="98" t="e">
         <f>COUNTIFS('[1]Test log'!$A$4:$A$986, "Lần 2",  '[1]Test log'!$B$4:$B$986, "FrontEnd", '[1]Test log'!$D$4:$D$986, "F", '[1]Test log'!$E$4:$E$986, "H")</f>
@@ -7207,7 +6939,7 @@
     <row r="29" spans="1:12">
       <c r="A29" s="96"/>
       <c r="B29" s="97" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C29" s="98">
         <v>4</v>
@@ -7246,7 +6978,7 @@
     <row r="30" spans="1:12">
       <c r="A30" s="96"/>
       <c r="B30" s="97" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C30" s="98">
         <v>5</v>
@@ -7285,7 +7017,7 @@
     <row r="31" spans="1:12">
       <c r="A31" s="96"/>
       <c r="B31" s="97" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C31" s="98">
         <v>1</v>
@@ -7321,14 +7053,14 @@
       </c>
       <c r="L31" s="99"/>
     </row>
-    <row r="32" spans="1:12" ht="15">
+    <row r="32" spans="1:12">
       <c r="A32" s="163" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B32" s="164"/>
       <c r="C32" s="101">
         <f>SUM(C20:C31)</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D32" s="101" t="e">
         <f>SUM(D20:D31)</f>
@@ -7361,9 +7093,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15">
+    <row r="33" spans="1:12">
       <c r="A33" s="165" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B33" s="166"/>
       <c r="C33" s="166"/>
@@ -7412,9 +7144,9 @@
       <c r="K34" s="83"/>
       <c r="L34" s="83"/>
     </row>
-    <row r="35" spans="1:12" ht="15">
+    <row r="35" spans="1:12">
       <c r="A35" s="103" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B35" s="83"/>
       <c r="C35" s="83"/>
@@ -7525,30 +7257,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
-    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51" customHeight="1">
       <c r="A1" s="52"/>
       <c r="B1" s="120"/>
       <c r="C1" s="139" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D1" s="140"/>
       <c r="E1" s="140"/>
       <c r="F1" s="140"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="42"/>
@@ -7556,26 +7288,26 @@
       <c r="E2" s="44"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="119"/>
       <c r="B3" s="146" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="147"/>
       <c r="D3" s="148" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E3" s="135"/>
       <c r="F3" s="135"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="42"/>
       <c r="B4" s="149" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="149"/>
       <c r="D4" s="135" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E4" s="135"/>
       <c r="F4" s="135"/>
@@ -7583,23 +7315,23 @@
     <row r="5" spans="1:6">
       <c r="A5" s="45"/>
       <c r="B5" s="141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="141"/>
       <c r="D5" s="145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="143"/>
       <c r="F5" s="53"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="42"/>
       <c r="B6" s="141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="141"/>
       <c r="D6" s="142" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E6" s="143"/>
       <c r="F6" s="144"/>
@@ -7615,217 +7347,217 @@
     <row r="8" spans="1:6">
       <c r="A8" s="49"/>
       <c r="B8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="D8" s="57" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="38.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51">
       <c r="A9" s="42"/>
       <c r="B9" s="56">
         <v>1</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E9" s="126" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="38.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51">
       <c r="A10" s="42"/>
       <c r="B10" s="56">
         <v>2</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E10" s="126" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="65" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="38.25">
+    </row>
+    <row r="11" spans="1:6" ht="51">
       <c r="A11" s="59"/>
       <c r="B11" s="56">
         <v>3</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E11" s="126" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="38.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51">
       <c r="A12" s="59"/>
       <c r="B12" s="56">
         <v>4</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="38.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51">
       <c r="A13" s="59"/>
       <c r="B13" s="56">
         <v>5</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="38.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51">
       <c r="A14" s="59"/>
       <c r="B14" s="56">
         <v>6</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E14" s="126" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="38.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51">
       <c r="A15" s="59"/>
       <c r="B15" s="56">
         <v>7</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E15" s="126" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="38.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="51">
       <c r="A16" s="59"/>
       <c r="B16" s="56">
         <v>8</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E16" s="126" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="38.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="59"/>
       <c r="B17" s="56">
         <v>9</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D17" s="127" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E17" s="126" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="38.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51">
       <c r="A18" s="59"/>
       <c r="B18" s="56">
         <v>10</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E18" s="126" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="38.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="51">
       <c r="A19" s="59"/>
       <c r="B19" s="128">
         <v>11</v>
       </c>
       <c r="C19" s="129" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D19" s="130" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E19" s="131" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="51">
@@ -7834,70 +7566,70 @@
         <v>12</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D20" s="127" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E20" s="126" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="38.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="59"/>
       <c r="B21" s="56">
         <v>13</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="38.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="51">
       <c r="A22" s="59"/>
       <c r="B22" s="56">
         <v>14</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E22" s="126" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F22" s="65" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="25.5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="39">
       <c r="A23" s="59"/>
       <c r="B23" s="56">
         <v>15</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25">
@@ -7906,16 +7638,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E24" s="126" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="38.25">
@@ -7924,16 +7656,16 @@
         <v>17</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E25" s="126" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="25.5">
@@ -7942,52 +7674,52 @@
         <v>18</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E26" s="126" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F26" s="65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="25.5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="38.25">
       <c r="A27" s="59"/>
       <c r="B27" s="56">
         <v>19</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E27" s="126" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="25.5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="38.25">
       <c r="A28" s="59"/>
       <c r="B28" s="56">
         <v>20</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E28" s="126" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F28" s="65" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8026,23 +7758,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="64.5" customHeight="1">
       <c r="A1" s="153" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -8055,13 +7787,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -8074,7 +7806,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -8090,27 +7822,27 @@
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -8120,13 +7852,13 @@
     </row>
     <row r="7" spans="1:6" ht="102">
       <c r="A7" s="76" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -8134,7 +7866,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="150" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B8" s="151"/>
       <c r="C8" s="151"/>
@@ -8144,13 +7876,13 @@
     </row>
     <row r="9" spans="1:6" ht="76.5">
       <c r="A9" s="76" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -8171,23 +7903,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60.75" customHeight="1">
       <c r="A1" s="153" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -8200,13 +7932,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -8219,7 +7951,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -8235,27 +7967,27 @@
     </row>
     <row r="5" spans="1:6" ht="48" customHeight="1">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -8263,15 +7995,15 @@
       <c r="E6" s="151"/>
       <c r="F6" s="152"/>
     </row>
-    <row r="7" spans="1:6" ht="63.75">
+    <row r="7" spans="1:6" ht="89.25">
       <c r="A7" s="76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -8279,7 +8011,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="150" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B8" s="151"/>
       <c r="C8" s="151"/>
@@ -8287,15 +8019,15 @@
       <c r="E8" s="151"/>
       <c r="F8" s="152"/>
     </row>
-    <row r="9" spans="1:6" ht="63.75">
+    <row r="9" spans="1:6" ht="76.5">
       <c r="A9" s="76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -8317,22 +8049,22 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="53.25" customHeight="1">
       <c r="A1" s="153" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -8345,13 +8077,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -8364,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -8380,27 +8112,27 @@
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -8408,15 +8140,15 @@
       <c r="E6" s="151"/>
       <c r="F6" s="152"/>
     </row>
-    <row r="7" spans="1:6" ht="76.5">
+    <row r="7" spans="1:6" ht="89.25">
       <c r="A7" s="76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -8424,7 +8156,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="150" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B8" s="151"/>
       <c r="C8" s="151"/>
@@ -8432,15 +8164,15 @@
       <c r="E8" s="151"/>
       <c r="F8" s="152"/>
     </row>
-    <row r="9" spans="1:6" ht="76.5">
+    <row r="9" spans="1:6" ht="89.25">
       <c r="A9" s="76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -8448,7 +8180,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="150" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B10" s="151"/>
       <c r="C10" s="151"/>
@@ -8458,13 +8190,13 @@
     </row>
     <row r="11" spans="1:6" ht="63.75">
       <c r="A11" s="76" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -8490,19 +8222,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
       <c r="A1" s="155" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -8515,13 +8247,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -8534,7 +8266,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -8550,27 +8282,27 @@
     </row>
     <row r="5" spans="1:6" ht="42.75" customHeight="1">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -8580,13 +8312,13 @@
     </row>
     <row r="7" spans="1:6" ht="89.25">
       <c r="A7" s="76" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -8610,19 +8342,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
       <c r="A1" s="155" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -8635,13 +8367,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -8654,7 +8386,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -8668,29 +8400,29 @@
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.25">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -8700,13 +8432,13 @@
     </row>
     <row r="7" spans="1:6" ht="76.5">
       <c r="A7" s="76" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -8714,7 +8446,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="156" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B8" s="157"/>
       <c r="C8" s="157"/>
@@ -8722,15 +8454,15 @@
       <c r="E8" s="157"/>
       <c r="F8" s="158"/>
     </row>
-    <row r="9" spans="1:6" ht="63.75">
+    <row r="9" spans="1:6" ht="76.5">
       <c r="A9" s="76" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -8738,7 +8470,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="156" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B10" s="157"/>
       <c r="C10" s="157"/>
@@ -8746,15 +8478,15 @@
       <c r="E10" s="157"/>
       <c r="F10" s="158"/>
     </row>
-    <row r="11" spans="1:6" ht="63.75">
+    <row r="11" spans="1:6" ht="76.5">
       <c r="A11" s="76" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -8780,18 +8512,18 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
       <c r="A1" s="153" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -8804,13 +8536,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -8823,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -8839,27 +8571,27 @@
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="E5" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="F5" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -8867,15 +8599,15 @@
       <c r="E6" s="151"/>
       <c r="F6" s="152"/>
     </row>
-    <row r="7" spans="1:6" ht="89.25">
+    <row r="7" spans="1:6" ht="114.75">
       <c r="A7" s="76" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -8899,19 +8631,19 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="81" customHeight="1">
       <c r="A1" s="73"/>
       <c r="B1" s="155" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C1" s="159"/>
       <c r="D1" s="159"/>
@@ -8923,13 +8655,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
@@ -8942,7 +8674,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="71"/>
@@ -8958,27 +8690,27 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="E5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="F5" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="150" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
@@ -8986,15 +8718,15 @@
       <c r="E6" s="151"/>
       <c r="F6" s="152"/>
     </row>
-    <row r="7" spans="1:6" ht="114.75">
+    <row r="7" spans="1:6" ht="127.5">
       <c r="A7" s="76" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
